--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1127590987453197</v>
+        <v>0.1174554259782614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008318596227693608</v>
+        <v>0.006752361961189982</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0687634338413133</v>
+        <v>0.08168681556759719</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06329132333029257</v>
+        <v>0.05787117316647781</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007366751004652303</v>
+        <v>0.03722710570658365</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03724149013557164</v>
+        <v>0.01833027617318912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008657426355333384</v>
+        <v>0.01043709077902733</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01543826041959187</v>
+        <v>0.02725175061850852</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01608004658653454</v>
+        <v>0.01146063917376587</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03908080512170663</v>
+        <v>0.0421122757080792</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01862335148375337</v>
+        <v>0.0124091398764193</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01924158495853947</v>
+        <v>0.01986118273282866</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07303310393544635</v>
+        <v>0.03523741276488794</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004146443993037421</v>
+        <v>0.03494637015357006</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003715442994603667</v>
+        <v>0.04757803768505121</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0361909158314858</v>
+        <v>0.08107765026724793</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008914403814425752</v>
+        <v>0.04745038584787228</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06116957961762613</v>
+        <v>0.07659200999665808</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0210049895579389</v>
+        <v>0.02520568323217951</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04778920420553525</v>
+        <v>0.05946361261517079</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.008939740447194318</v>
+        <v>0.003082010815242488</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06900590042343323</v>
+        <v>0.0235839746166764</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07176739194327793</v>
+        <v>0.05054152923540339</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07454960581062074</v>
+        <v>0.05430294448814721</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0102083694126773</v>
+        <v>0.004452983975049913</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0383386921890942</v>
+        <v>0.0309342004910507</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01784768242838924</v>
+        <v>0.04666726912485447</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0743345651060114</v>
+        <v>0.03049409737347597</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.08473258254401973</v>
+        <v>0.02299001585379496</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05705886175784169</v>
+        <v>0.0498627309343872</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1440148501231554</v>
+        <v>0.1360497869619483</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06851890252455446</v>
+        <v>0.06649379050758526</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01832933080074966</v>
+        <v>0.004423718697022024</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01804251769157864</v>
+        <v>0.06935733841863846</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07585124188947028</v>
+        <v>0.02160941060277454</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01282059667419728</v>
+        <v>0.01377675575630935</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01901532390074069</v>
+        <v>0.006615690485843987</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05199245962740579</v>
+        <v>0.04416078132202863</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02116093469384293</v>
+        <v>0.04544955226288304</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003252705068339866</v>
+        <v>0.06535973645696543</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009452408068167571</v>
+        <v>0.02389821208626334</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0003150128835575183</v>
+        <v>0.0009457150775589479</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04214807824967291</v>
+        <v>0.02295319172110656</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03619402105936532</v>
+        <v>0.02641165886968615</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0156704575261234</v>
+        <v>0.03413629914256406</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05327523758233879</v>
+        <v>0.02640213946460901</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04470973314234834</v>
+        <v>0.05787743626492553</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07995519042713037</v>
+        <v>0.05549120231921414</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0639385911293827</v>
+        <v>0.05079279552696048</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00367814922479528</v>
+        <v>0.05347468900278135</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03942861399863637</v>
+        <v>0.01865058731693644</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02788348696442758</v>
+        <v>0.03725426338239515</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02580420276989925</v>
+        <v>0.07528824255143815</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07496687545208915</v>
+        <v>0.04796650191715281</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01232726648030143</v>
+        <v>0.01472020942211213</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.007625450960050872</v>
+        <v>0.03234229028636727</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.07046189214207282</v>
+        <v>0.05687270209645009</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02885318016964305</v>
+        <v>0.01172713741956431</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07432813889911764</v>
+        <v>0.01554795162186337</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1582869109379152</v>
+        <v>0.1540116713702792</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1210338076473293</v>
+        <v>0.1276892279521103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0007413118416282101</v>
+        <v>0.002588122484883438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05015076949404784</v>
+        <v>0.06092741113081994</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002812413487880219</v>
+        <v>0.04495023656803774</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07824225140053434</v>
+        <v>0.02164531136332323</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009251614180750017</v>
+        <v>0.00277971850665911</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02330582698009573</v>
+        <v>0.02886470015540662</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06356526258306722</v>
+        <v>0.07470956252268851</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007237443872743421</v>
+        <v>0.03376994818220439</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07823584289534039</v>
+        <v>0.0794051690448508</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005709869001164342</v>
+        <v>0.03414987412842755</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01698230163458291</v>
+        <v>0.004435154203450258</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01728771088387598</v>
+        <v>0.02902501480875505</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07885169931394261</v>
+        <v>0.0847508758554216</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001835824000912001</v>
+        <v>0.02054502283480306</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01268798031918995</v>
+        <v>0.07510986550732754</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02448884038703561</v>
+        <v>0.05219950099760145</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05171119831404114</v>
+        <v>0.02263540053801007</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01845608319327224</v>
+        <v>0.004954038631532494</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02939390627032723</v>
+        <v>0.04246726423098428</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01629021145372081</v>
+        <v>0.006936365538845703</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07727180362248776</v>
+        <v>0.02819304036031936</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03114451075898208</v>
+        <v>0.03612070588980067</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.08115200135556301</v>
+        <v>0.05273736862597855</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02078435890013108</v>
+        <v>0.009101840037757715</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06396324591093862</v>
+        <v>0.01171661238953953</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.07262559478373198</v>
+        <v>0.05408107014508214</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.06021235921032492</v>
+        <v>0.02347031042084944</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.01212146343515749</v>
+        <v>0.05773049489663973</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.361119421734298</v>
+        <v>-0.3231786052951287</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1669823413889839</v>
+        <v>0.1897965328969206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05673189512773586</v>
+        <v>0.07220057168927065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003265337604176713</v>
+        <v>0.02774504587465362</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003083390142813115</v>
+        <v>0.01633253904193642</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03680861399511918</v>
+        <v>0.01884590000375857</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07507986928567567</v>
+        <v>0.05498981199929918</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07751885632224113</v>
+        <v>0.07821433221344343</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01269405301665518</v>
+        <v>0.01214241075133199</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006956727359504587</v>
+        <v>0.04801348682761021</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0402133879586483</v>
+        <v>0.05172160714624485</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05116698089371226</v>
+        <v>0.00775759828740627</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01338701547970336</v>
+        <v>0.02651878673993558</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01375898243431796</v>
+        <v>0.02525799807985138</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07192061964439614</v>
+        <v>0.05188278825466173</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03844118260495849</v>
+        <v>0.0574822618694065</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06083473931413118</v>
+        <v>0.006985740754172141</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03382641088991603</v>
+        <v>0.04857252097517158</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0669675759197291</v>
+        <v>0.03610767259654547</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02693981729503823</v>
+        <v>0.04233686617813233</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06198065744986792</v>
+        <v>0.02910522001365603</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02077591097290242</v>
+        <v>0.0607888994083088</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01130434198727754</v>
+        <v>0.003643876297962008</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04339633651572376</v>
+        <v>0.05376403859002155</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04491059858775445</v>
+        <v>0.06756837430634187</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01196307544546421</v>
+        <v>0.06343671860634197</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0502710623115901</v>
+        <v>3.294805310942319e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0002981454786791823</v>
+        <v>0.005602329760818687</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.002630457919046085</v>
+        <v>0.008728437427892421</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.06287395804322179</v>
+        <v>0.02422121825271527</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3954735426389136</v>
+        <v>-0.3674528162654716</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2218985549591589</v>
+        <v>0.2287689722013091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0008243609826280048</v>
+        <v>0.01933851321196812</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02171072059351963</v>
+        <v>0.01722985231425925</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008521049588297612</v>
+        <v>0.001026320991936565</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06743717969177994</v>
+        <v>0.02085037839624291</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04384984655955678</v>
+        <v>0.01097873345091888</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01964414575862681</v>
+        <v>0.007765644580420757</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05165544903792312</v>
+        <v>0.0420074401554414</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01679711776383366</v>
+        <v>0.04435133006396263</v>
       </c>
       <c r="N6" t="n">
-        <v>0.007817008484692179</v>
+        <v>0.02527678302062013</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006406743530909961</v>
+        <v>0.00912222872123465</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05073106692693451</v>
+        <v>0.03134547079870913</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01962218453526987</v>
+        <v>0.06082528495901988</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05856308337975804</v>
+        <v>0.06291205420048175</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03640356140527188</v>
+        <v>0.00159188345493258</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07295134745258119</v>
+        <v>0.05737774810882797</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00484124191953809</v>
+        <v>0.02936799216283545</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05179544441393674</v>
+        <v>0.0428441375383928</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05594418420895515</v>
+        <v>0.05861399473525384</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05056924406409102</v>
+        <v>0.05922869486756168</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05113400782372854</v>
+        <v>0.06232617954583351</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04775602464057201</v>
+        <v>0.06771111945361796</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01676557804066636</v>
+        <v>0.002203130932271682</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06749168123452284</v>
+        <v>0.06917853011182599</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.007524574211620515</v>
+        <v>0.03754706480607995</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.04230765377556496</v>
+        <v>0.02839394004659628</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01686812699156517</v>
+        <v>0.03988656559520828</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03468681565822089</v>
+        <v>0.05112609170297005</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0770495019549024</v>
+        <v>0.03957289207257596</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1801073617067568</v>
+        <v>0.1916545661959816</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2683867972671076</v>
+        <v>0.2688878371828647</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07212355049981374</v>
+        <v>0.05599936297699692</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06320899245318613</v>
+        <v>0.04671606768449153</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07250340546799196</v>
+        <v>0.07227861197471526</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04228247327999045</v>
+        <v>0.03207409413968371</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01897156706698419</v>
+        <v>0.003965588596616044</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09308671870081461</v>
+        <v>0.04798406627601552</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03169074653636733</v>
+        <v>0.01776466778706507</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04206074596743377</v>
+        <v>0.03027575872048543</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01643667357197264</v>
+        <v>0.03579083849427991</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008464273904881458</v>
+        <v>0.01893349661143564</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01329220043577166</v>
+        <v>0.0502504178277914</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02865487515846908</v>
+        <v>0.0003019096521463883</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08130123243442736</v>
+        <v>0.06723137224691848</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05308906265935281</v>
+        <v>0.0480827092748447</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03668875262400316</v>
+        <v>0.007558910805308702</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0499716562574777</v>
+        <v>0.07606406638041589</v>
       </c>
       <c r="V7" t="n">
-        <v>0.003535973667239174</v>
+        <v>0.007870680271340099</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03430180775908311</v>
+        <v>0.03260018311943547</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0007293063254781464</v>
+        <v>0.04703738827792334</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002157564822718133</v>
+        <v>0.03810601968207147</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02011058804439802</v>
+        <v>0.000924078617928565</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.006529667676278337</v>
+        <v>6.932319830260298e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06490494690573423</v>
+        <v>0.02112560062922326</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02892358400309367</v>
+        <v>0.01849234952934705</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01892735827046277</v>
+        <v>0.05519899076256327</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.007722506074712211</v>
+        <v>0.01771714210717095</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02670291114916937</v>
+        <v>0.08925420334888125</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.06162685828269449</v>
+        <v>0.06033210100660196</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.305531117700842</v>
+        <v>0.3020470976145979</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2639079267275142</v>
+        <v>0.2638661754832328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05106099147016387</v>
+        <v>0.07277928166417755</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07588536195589489</v>
+        <v>0.07434286248837625</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005798808358545593</v>
+        <v>0.01256556389256257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0653279813424774</v>
+        <v>0.04222715196332442</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03842787299330314</v>
+        <v>0.02413435140951764</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004941228524289396</v>
+        <v>0.02051689513598955</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00721351267491054</v>
+        <v>0.004728812358642459</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0502136558725591</v>
+        <v>0.04217093492585203</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02755150370036233</v>
+        <v>0.01317784459834857</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005265609601213973</v>
+        <v>0.03272107580189157</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04753784813198788</v>
+        <v>0.0231744205879031</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002298994491169667</v>
+        <v>0.002360485815760479</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01890867971152059</v>
+        <v>0.06163098305428038</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08584080034472316</v>
+        <v>0.04225024778416703</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0698908798650669</v>
+        <v>0.06234752186820212</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0006727925396487042</v>
+        <v>0.002935242677540602</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04632970671012081</v>
+        <v>0.06551243978073951</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08114643373624546</v>
+        <v>0.02481359050472599</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03258924861258766</v>
+        <v>0.03556859788265615</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02969387605003911</v>
+        <v>0.0703542724465084</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03583159660553994</v>
+        <v>0.01133176241101741</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01277789256070157</v>
+        <v>0.002192967798279205</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.07119050099588614</v>
+        <v>0.05972023967974183</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.04432993277738292</v>
+        <v>0.03359229959643209</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.003956994437604625</v>
+        <v>0.02339140650735045</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01938291985534153</v>
+        <v>0.01719269482469023</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.002042597938628241</v>
+        <v>0.07874501468338753</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06389177814208494</v>
+        <v>0.04352103785793487</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1022462483341543</v>
+        <v>0.1001620517788919</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2987680398022114</v>
+        <v>0.311137897696692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08049058105404064</v>
+        <v>0.1048426302238137</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006476922866024652</v>
+        <v>0.009915105450372797</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06933774585871545</v>
+        <v>0.04244901482273856</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04893991592322705</v>
+        <v>0.02116774446773552</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0526678515047047</v>
+        <v>0.03147157960652202</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08928995972922797</v>
+        <v>0.07048044631000855</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008368480607920361</v>
+        <v>0.01675622106324891</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03527866359317543</v>
+        <v>0.03075651863296486</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004135007492005789</v>
+        <v>0.05343010563506158</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01484765915094589</v>
+        <v>0.05180061214435941</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05647889789378865</v>
+        <v>0.0366030175105819</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02192036221262552</v>
+        <v>0.02131609821588063</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09564602177622014</v>
+        <v>0.04940462534141634</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01226997972100181</v>
+        <v>0.07780407966286981</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06540137454279611</v>
+        <v>0.003564644648543739</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009107337259205527</v>
+        <v>0.01119083952915652</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05276762542566965</v>
+        <v>0.1005492656231738</v>
       </c>
       <c r="W9" t="n">
-        <v>0.008601497847773852</v>
+        <v>0.0002496512135924718</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02873912008296362</v>
+        <v>0.01823978617095382</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0446026283328574</v>
+        <v>0.01864167732119218</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00818573359070679</v>
+        <v>0.06069457382501323</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02690452595044588</v>
+        <v>0.001076795049146389</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01095326801095389</v>
+        <v>0.05893102123588775</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01443794175809254</v>
+        <v>0.003904031783010734</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01277141404060019</v>
+        <v>0.03396502146365716</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0340479262569647</v>
+        <v>0.01783718407218076</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.07147215414535482</v>
+        <v>0.004665214265394471</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0233910359191194</v>
+        <v>0.04829249471152249</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1752486556145259</v>
+        <v>0.1480825482635562</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1930750948537528</v>
+        <v>0.1875266618816754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01304250411487274</v>
+        <v>0.02158622745667456</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08071511343595829</v>
+        <v>0.07572356442763445</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005226317279016608</v>
+        <v>0.01794784261526347</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06172739038625936</v>
+        <v>0.02784190217736266</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008888099674628957</v>
+        <v>0.01679712921486224</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04089003780223523</v>
+        <v>0.06083037751304371</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03236116227668077</v>
+        <v>0.01911865754246682</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02799359578956196</v>
+        <v>0.01369089337926784</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03503233527032479</v>
+        <v>0.003432858856836916</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01304200370085709</v>
+        <v>7.024929694898683e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06161036449131888</v>
+        <v>0.08660937935484861</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04011929090349434</v>
+        <v>0.05850474118316133</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02137481051749922</v>
+        <v>0.01293334499321659</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000699170353009689</v>
+        <v>0.003667095651407618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08554767040504467</v>
+        <v>0.08525085823993106</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02026861839246845</v>
+        <v>0.009005497689938465</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02111731142691475</v>
+        <v>0.01038321162860683</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06220590754690186</v>
+        <v>0.06980559532525125</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06235330804186093</v>
+        <v>0.02521398917715314</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004131603611091934</v>
+        <v>0.0395346363917868</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03476673227505143</v>
+        <v>0.005354950603963272</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06352396253098319</v>
+        <v>0.07617011067045638</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.09175881203942265</v>
+        <v>0.06537145884250177</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.03359984565690961</v>
+        <v>0.004889227236649286</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01363007193034219</v>
+        <v>0.01874518616825474</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.02747040665530876</v>
+        <v>0.0745949627743232</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03984816041124459</v>
+        <v>0.02614672667138353</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.005054682787902974</v>
+        <v>0.07077932491680444</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.03829206126972071</v>
+        <v>0.06555620062597109</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3143484679771931</v>
+        <v>0.3033133217827013</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09220065616713763</v>
+        <v>0.07176932816112627</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008336401411092084</v>
+        <v>0.03510840832587517</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02183452823507645</v>
+        <v>0.03855208733905595</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04878041658978583</v>
+        <v>0.08076174514262732</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02826680257201654</v>
+        <v>0.03877512698162092</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06414786110647522</v>
+        <v>0.07704154566752852</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02537026537490085</v>
+        <v>0.04918688228695461</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02125170659181608</v>
+        <v>0.002814578274944304</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04136960198362182</v>
+        <v>0.05508607514740794</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02072337887542167</v>
+        <v>0.002643277630843966</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04589374036465375</v>
+        <v>0.04046876560946041</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05415540759499329</v>
+        <v>0.08443584155255029</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02496814909622539</v>
+        <v>0.02035346343514836</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02207835884821115</v>
+        <v>0.02012421531874905</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02018997598037205</v>
+        <v>0.0007789634457731291</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02790700833930722</v>
+        <v>0.02191139925111117</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01978132275560613</v>
+        <v>0.004631906644251701</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02101866399569848</v>
+        <v>0.01895832574507483</v>
       </c>
       <c r="X11" t="n">
-        <v>0.003190031411390271</v>
+        <v>0.02031510259763991</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.008850023736453059</v>
+        <v>0.01365386578687015</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01931153679290923</v>
+        <v>0.0117826798339327</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.06358498111966362</v>
+        <v>0.0331373107545332</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06130441556214111</v>
+        <v>0.04809853665197001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.09229244867505787</v>
+        <v>0.0364601065836662</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.07605321924739028</v>
+        <v>0.07209901438332417</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03888405124741254</v>
+        <v>0.08766646520503014</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.008950369273398196</v>
+        <v>0.004963698883171776</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01930467705177222</v>
+        <v>0.008421283359757984</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05095796050582879</v>
+        <v>0.04974311481835503</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1577917103606228</v>
+        <v>0.1549801166625333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01714049478175336</v>
+        <v>0.006025146063803776</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04773709059501089</v>
+        <v>0.005942736929419891</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0251440220943992</v>
+        <v>0.02099395225861102</v>
       </c>
       <c r="I12" t="n">
-        <v>0.031404763990853</v>
+        <v>0.0202338474130618</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01223980570341092</v>
+        <v>0.02810192602540578</v>
       </c>
       <c r="K12" t="n">
-        <v>0.008498089521196753</v>
+        <v>0.006848953499605842</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01262095685592082</v>
+        <v>0.06883798492533826</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0004680362835155737</v>
+        <v>0.01286844387777904</v>
       </c>
       <c r="N12" t="n">
-        <v>7.772023913338503e-05</v>
+        <v>0.04064906744485847</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05365768376661832</v>
+        <v>0.02572179694048279</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05049677713543414</v>
+        <v>0.01832735753058513</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.007504380348353704</v>
+        <v>0.005635356411359451</v>
       </c>
       <c r="R12" t="n">
-        <v>0.007585017794663036</v>
+        <v>0.03803488887719374</v>
       </c>
       <c r="S12" t="n">
-        <v>0.007803002695007824</v>
+        <v>0.03962140290970661</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06132487958990337</v>
+        <v>0.08272715678428078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05833673758864408</v>
+        <v>0.03866170814644682</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04475722218220594</v>
+        <v>0.08018944379510014</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03484845853803081</v>
+        <v>0.03321390212189576</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02805597474778307</v>
+        <v>0.04140008949394063</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07086314022269512</v>
+        <v>0.03109189880469765</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.08775903570831765</v>
+        <v>0.04364803475641918</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.008740933211258352</v>
+        <v>0.02501476502014681</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03499223696474273</v>
+        <v>0.0628508419101252</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.05539445210064644</v>
+        <v>0.03618250036066523</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01696144827751766</v>
+        <v>0.0005180642421363348</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07682418148164122</v>
+        <v>0.07029179961501691</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.08622521610144349</v>
+        <v>0.05705497114240726</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.05253824147989927</v>
+        <v>0.05931196269950961</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.120430614119957</v>
+        <v>0.08155946344875906</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1749144166389212</v>
+        <v>0.1669566859077363</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03173205595550761</v>
+        <v>0.01359895923879942</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01042204065714951</v>
+        <v>0.06613823129315773</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02558561208045509</v>
+        <v>0.0152901798342076</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07832525868574552</v>
+        <v>0.0159031045795195</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06475720650673759</v>
+        <v>0.02757905426355906</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02702905553196473</v>
+        <v>0.04146362777432949</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01510052398364748</v>
+        <v>0.01571140364658156</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08390758598252947</v>
+        <v>0.05086036862268022</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003965361811194468</v>
+        <v>0.01247906228700035</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02552089314966059</v>
+        <v>0.01378410701486663</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08563794282181278</v>
+        <v>0.07192538799788306</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01423784605822535</v>
+        <v>0.04388754376138523</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03069784981447699</v>
+        <v>0.003528416455607462</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03640723775387048</v>
+        <v>0.002275630613981039</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01673439413206924</v>
+        <v>0.03913825657428971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009531204976724978</v>
+        <v>0.0842429921257631</v>
       </c>
       <c r="V13" t="n">
-        <v>0.06880089288142123</v>
+        <v>0.05810035672246706</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01927076960325267</v>
+        <v>0.06904589313744024</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02347941118740327</v>
+        <v>0.0136464620122269</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02741495347539541</v>
+        <v>0.07809889066914651</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03888386620722494</v>
+        <v>0.01862816477446439</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006022769310294557</v>
+        <v>0.01807698290676887</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0394029407571569</v>
+        <v>0.05029781360171876</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.06923780783639871</v>
+        <v>0.002245811705269842</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.04779048697186825</v>
+        <v>0.03610886041760653</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03166622173670146</v>
+        <v>0.04103021247785389</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.003214589374850287</v>
+        <v>0.01216045694100773</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.06522322075626028</v>
+        <v>0.08475376855041809</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1000683278143197</v>
+        <v>0.1278482329377386</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1429967771011405</v>
+        <v>0.1405998707489102</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009041282296275023</v>
+        <v>0.04609118932013458</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03422536695100884</v>
+        <v>0.07742970215419943</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02209458746407696</v>
+        <v>0.00937769766643045</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05346344876383401</v>
+        <v>0.001045032664751026</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04087409492798556</v>
+        <v>0.05856815753769443</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02095433062459265</v>
+        <v>0.003005399088952206</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02979782126248815</v>
+        <v>0.02079707451621206</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06297584788930216</v>
+        <v>0.03835280331642672</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06041453116788378</v>
+        <v>0.01384922938982289</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02096223324837787</v>
+        <v>0.07329924714424491</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04995080870631345</v>
+        <v>0.01916353562306649</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01544872560287508</v>
+        <v>0.03001899788563339</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04744141150388659</v>
+        <v>0.03695253192626995</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03504210096045363</v>
+        <v>0.0487245180738089</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06450163392539122</v>
+        <v>0.04358650340698386</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002648389837253841</v>
+        <v>0.004313481126547332</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04956623535936416</v>
+        <v>0.08269524623389032</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04716050176806639</v>
+        <v>0.07167368919376733</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02942780265043754</v>
+        <v>0.008969914891230798</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.03617887773228011</v>
+        <v>0.05404013297018289</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04180586745024441</v>
+        <v>0.01253835883394246</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01992017299278773</v>
+        <v>0.02790180220886954</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06321207004888356</v>
+        <v>0.05810448676341069</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01786643619710347</v>
+        <v>0.02268834524772109</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0004699318977211293</v>
+        <v>0.0006769438843192841</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06574816726334239</v>
+        <v>0.07109832890496275</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0535183829237084</v>
+        <v>0.04623958430452563</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.005288938584061854</v>
+        <v>0.01879806572199861</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2256696618897042</v>
+        <v>0.179050365125718</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1513059250988904</v>
+        <v>0.1510929721651247</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03523028126686518</v>
+        <v>0.01276420001884295</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04927681768372887</v>
+        <v>0.06330250482836954</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09366539306843204</v>
+        <v>0.06511571785954151</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05090409541910711</v>
+        <v>0.04719376551966973</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001957962961844333</v>
+        <v>0.007062837238169512</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0179781670389698</v>
+        <v>0.02764694945169536</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003946377532580777</v>
+        <v>0.02166261342121653</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02949113887407291</v>
+        <v>0.03794643047750985</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04090094177321699</v>
+        <v>0.0493575800556019</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06181472564203203</v>
+        <v>0.06455484919370877</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02282580294100742</v>
+        <v>0.05021635893449879</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04326063125528951</v>
+        <v>0.05260006255467487</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03815014997165652</v>
+        <v>0.02718267205720842</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04771195424262173</v>
+        <v>0.04327976933918914</v>
       </c>
       <c r="T15" t="n">
-        <v>0.08023959461171029</v>
+        <v>0.03501304646852915</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008177602825634803</v>
+        <v>0.006844311232089416</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0490098585019135</v>
+        <v>0.04790052011170236</v>
       </c>
       <c r="W15" t="n">
-        <v>0.006854299629141697</v>
+        <v>0.03296599340732008</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0201086319092992</v>
+        <v>0.01490554867595242</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.006774662982686486</v>
+        <v>0.01706386904539</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.005381632873394086</v>
+        <v>0.02707392273057879</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.004639899689889267</v>
+        <v>0.05716354043872787</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.08987714568482462</v>
+        <v>0.06201006800537209</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02048792776362312</v>
+        <v>0.01407249408276701</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01889227385887138</v>
+        <v>0.01673504130631195</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.04315437410145228</v>
+        <v>0.04672390115790397</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.08413166347733186</v>
+        <v>0.044947300534072</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02515599241880214</v>
+        <v>0.006694131853385895</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2623743460235642</v>
+        <v>0.2636924799684676</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1171416848864048</v>
+        <v>0.1221233378712075</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02063846278436069</v>
+        <v>0.04406956024106517</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01756220933893331</v>
+        <v>0.01404892977615833</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008694448284909107</v>
+        <v>0.0002946962185712287</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009778522879916303</v>
+        <v>0.007380555714985868</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07657472928197852</v>
+        <v>0.01241917058024716</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002959607301996852</v>
+        <v>0.001257283952317051</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01396626299662664</v>
+        <v>0.06423303871816666</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06286997528235777</v>
+        <v>0.05808869062908089</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0314391988770406</v>
+        <v>0.05795417724187294</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003612790342224475</v>
+        <v>0.0554597154773465</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02811121145561004</v>
+        <v>0.05595400771494991</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01482401229575715</v>
+        <v>0.06608857796862209</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01232828058476606</v>
+        <v>8.856193870385168e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04678284151254147</v>
+        <v>0.007194136560163868</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03719727549325252</v>
+        <v>0.01552781468814087</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01579205853249529</v>
+        <v>0.02432447371376092</v>
       </c>
       <c r="V16" t="n">
-        <v>0.07687321224092454</v>
+        <v>0.03444749471854473</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03422334638829552</v>
+        <v>0.0601043357658882</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05950683237607095</v>
+        <v>0.06386004304774136</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05964902711676812</v>
+        <v>0.04458465182595308</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07081121581651463</v>
+        <v>0.03088311014486276</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.005907547103991709</v>
+        <v>0.03749990612117232</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01924955013745066</v>
+        <v>0.02674079777735625</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01529513015972298</v>
+        <v>0.03952626912108899</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0748836598248772</v>
+        <v>0.03102956376072741</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.05471496120668783</v>
+        <v>0.06325246445436074</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.05325039474005028</v>
+        <v>0.01951849813415717</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.07250323564387874</v>
+        <v>0.06416947399399363</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1314095675700066</v>
+        <v>0.1316674038955023</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1412809688787972</v>
+        <v>0.12277020753202</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01526670379083994</v>
+        <v>0.07497009791221917</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006406780707239657</v>
+        <v>0.03405112951574122</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02586592098951939</v>
+        <v>0.0115753910577872</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05168959578615726</v>
+        <v>0.004007915463604007</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00584291523005002</v>
+        <v>0.01644295896402135</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003417973402643238</v>
+        <v>0.002472702774352967</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06838545003965861</v>
+        <v>0.05213367454553915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01972694704853815</v>
+        <v>0.000694715978910211</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07749259559172521</v>
+        <v>0.07528139293577235</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004121946317830417</v>
+        <v>0.002500932147784122</v>
       </c>
       <c r="P17" t="n">
-        <v>0.004092333986163957</v>
+        <v>0.04127883530310113</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.06348287756354781</v>
+        <v>0.05694850964221939</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06598959546564409</v>
+        <v>0.0653340186494258</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02152911140307004</v>
+        <v>0.05753026626171143</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02594880652001776</v>
+        <v>0.01035447826863297</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007358124063882114</v>
+        <v>0.01710630407570921</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05288105775729827</v>
+        <v>0.05269095676164073</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0162385391704043</v>
+        <v>0.07239774445413033</v>
       </c>
       <c r="X17" t="n">
-        <v>0.08358183120540172</v>
+        <v>0.07428437904439703</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02172246752537993</v>
+        <v>0.03068358427477053</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05691041317238922</v>
+        <v>0.05312245818647353</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04153584200811399</v>
+        <v>0.01442687790850149</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02541249934164544</v>
+        <v>0.008578327012198659</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.04166335383740261</v>
+        <v>0.006674769963521885</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.03447443708672538</v>
+        <v>0.07601297605194353</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.04951061912352239</v>
+        <v>0.01397373921438668</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07643257308305429</v>
+        <v>0.06412576225681166</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.03301868878213473</v>
+        <v>0.01034510137469233</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1302069584099173</v>
+        <v>0.1701587347576966</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1140557305010076</v>
+        <v>0.1178280816491909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02117700998750434</v>
+        <v>0.00137733815913611</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01400237683778401</v>
+        <v>0.01998805499040313</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03281115611426222</v>
+        <v>0.02213976278185974</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0807255339425533</v>
+        <v>0.07119679056606842</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07611680221687869</v>
+        <v>0.07155751602861847</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07215736611030397</v>
+        <v>0.00479803192751552</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003349006153333046</v>
+        <v>0.07250522420577167</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02429867722013643</v>
+        <v>0.03603188662241709</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01027525027383482</v>
+        <v>0.002891499917776283</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05798753019626936</v>
+        <v>0.05898117246582273</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01904708381821659</v>
+        <v>0.01591357042361193</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01863785501072023</v>
+        <v>0.01313409196302897</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07625769938526095</v>
+        <v>0.06910115575221905</v>
       </c>
       <c r="S18" t="n">
-        <v>0.00431823920093225</v>
+        <v>0.0644336394891542</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03157329796799354</v>
+        <v>0.03491410384084467</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01374564431565734</v>
+        <v>0.00217925931353366</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06174944439859846</v>
+        <v>0.01480470393274772</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07328665901151503</v>
+        <v>0.05588652577760643</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06219104849324356</v>
+        <v>0.03261085843423318</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02726591387580132</v>
+        <v>0.06780504750165348</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.007711925938600435</v>
+        <v>0.05016061503880662</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04201801349529405</v>
+        <v>0.0004521718330748419</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.003960887094096165</v>
+        <v>0.05458652381886998</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01204434548729936</v>
+        <v>0.06777460121733714</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.03464641516780701</v>
+        <v>0.02944902437710153</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.07805763527511879</v>
+        <v>0.02398567580863661</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0204920339280837</v>
+        <v>0.02704381607928723</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.02009514908290097</v>
+        <v>0.01429733773286363</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.00368848623049789</v>
+        <v>-0.02918178016326432</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1522244470242849</v>
+        <v>0.1373438112199035</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03139063335120827</v>
+        <v>0.006666216402850106</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08292643257542583</v>
+        <v>0.06705301704923558</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01736998274655457</v>
+        <v>0.03414339786004696</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04882053827552174</v>
+        <v>0.03857231807289806</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01542117501581797</v>
+        <v>0.02857151782914192</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06751530458951624</v>
+        <v>0.0632961535296506</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01160963331165451</v>
+        <v>0.06713897804144642</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02075736885709149</v>
+        <v>0.003135746330862611</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01786317432598151</v>
+        <v>0.04940909907014704</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0002785782209021491</v>
+        <v>0.01363218887029275</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05463328008577332</v>
+        <v>0.01055281555136622</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.001832358997429347</v>
+        <v>0.01402295914309149</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001318058359075025</v>
+        <v>0.005967479565396799</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05143557794533698</v>
+        <v>0.0657328804104446</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03704057078984466</v>
+        <v>0.04868708707646321</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04188399974893318</v>
+        <v>0.05087970293843642</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04023811691424166</v>
+        <v>0.02253122005467183</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03545922490823237</v>
+        <v>0.06122605599400859</v>
       </c>
       <c r="X19" t="n">
-        <v>0.03460281451829701</v>
+        <v>0.02886597419048768</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07928431990898838</v>
+        <v>0.06819949895182141</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.07663995783959535</v>
+        <v>0.06896865629890195</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02768229484408686</v>
+        <v>0.006268559248527498</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.002848186249439254</v>
+        <v>0.02864229551184389</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.05517675720264547</v>
+        <v>0.02019182387952786</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.03518982808435613</v>
+        <v>0.06337507033047558</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.007880189092407515</v>
+        <v>0.009672472628113883</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.09079094805170961</v>
+        <v>0.05336419800578148</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01211069518993355</v>
+        <v>0.001232617164067563</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05937277529583662</v>
+        <v>0.04085513655069853</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1100509701201097</v>
+        <v>0.111087159689222</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03970716502871014</v>
+        <v>0.05216097817339768</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01423041268078666</v>
+        <v>0.004143070932510842</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02964031434077081</v>
+        <v>0.04869281397685832</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01008682110239758</v>
+        <v>0.02847619801504002</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004938371443236925</v>
+        <v>0.004139653164452834</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01072018341636708</v>
+        <v>0.001583055014571361</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02121470992150955</v>
+        <v>0.01141298098016153</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06368396466434519</v>
+        <v>0.05318088842397189</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02006012530224414</v>
+        <v>0.02438904770392164</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06024042503284176</v>
+        <v>0.06994396158163914</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05604426815584222</v>
+        <v>0.002595018928667695</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06392766838963962</v>
+        <v>0.01834205879108367</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03011573673364531</v>
+        <v>0.01368046751940981</v>
       </c>
       <c r="S20" t="n">
-        <v>0.005193300610283299</v>
+        <v>0.02685312567517299</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03687226019582113</v>
+        <v>0.04688099995018154</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02045172033172339</v>
+        <v>0.04597410763018826</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06068354282742563</v>
+        <v>0.07052243285308245</v>
       </c>
       <c r="W20" t="n">
-        <v>0.03591576418759711</v>
+        <v>0.03352973494179701</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06302367942247038</v>
+        <v>0.04961726874200196</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01634222711298657</v>
+        <v>0.00557227736229879</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0223715838313504</v>
+        <v>0.03168697616429814</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.03879787597310592</v>
+        <v>0.05304402428626549</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05435709307769201</v>
+        <v>0.07380370961661376</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06208851959802372</v>
+        <v>0.04952418442416379</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.03650372599596063</v>
+        <v>0.04824054013081064</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.05790012976213213</v>
+        <v>0.0672232879488379</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.006969327362320581</v>
+        <v>0.01500716801946943</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.05791908349877029</v>
+        <v>0.0497799690491315</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1200273529235348</v>
+        <v>0.1238729350852199</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1313786459783438</v>
+        <v>0.1212279241987334</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05432699632902287</v>
+        <v>0.02738126813169384</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02038855449374233</v>
+        <v>0.004929233425710102</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009053735375135485</v>
+        <v>0.01169610262463208</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03834610911459069</v>
+        <v>0.04994780386448294</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005091721836437807</v>
+        <v>0.006046411331654667</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05438449932851956</v>
+        <v>0.05728807591003403</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05459886034322168</v>
+        <v>0.004850478067358123</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001724714579986302</v>
+        <v>0.04767086102077223</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03890505200742489</v>
+        <v>0.02671957316310006</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006221837816593396</v>
+        <v>0.02377708153419316</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08275388172042238</v>
+        <v>0.08338066815278357</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04387234051554476</v>
+        <v>0.001378465572418707</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02044836185474618</v>
+        <v>0.0555009140179745</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06601826580185531</v>
+        <v>0.02141222883603644</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01829538416143863</v>
+        <v>0.04734361500088881</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02236251925191923</v>
+        <v>0.002633352874933726</v>
       </c>
       <c r="V21" t="n">
-        <v>0.05647987596752255</v>
+        <v>0.003027713848178159</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06177367988321304</v>
+        <v>0.06938022426895618</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02274869765482567</v>
+        <v>0.03518127915481262</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04106619130401533</v>
+        <v>0.03838120868860979</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.07432108420688827</v>
+        <v>0.0846726921496644</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07591661498805979</v>
+        <v>0.07770546771671973</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.00715365453608874</v>
+        <v>0.03433111375576148</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.04812484452507183</v>
+        <v>0.0176018838192821</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.03838099123570535</v>
+        <v>0.03989569460705943</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.003506786394823637</v>
+        <v>0.06329484545089382</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02658240648841727</v>
+        <v>0.05075114931639239</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.007152338284766907</v>
+        <v>0.01382059369500276</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.06304241368136218</v>
+        <v>0.08458803709818742</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1226004106316748</v>
+        <v>0.1234068763019157</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01786142625155885</v>
+        <v>0.004422457109248314</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0504884733922228</v>
+        <v>0.04129547381749017</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01756626783998487</v>
+        <v>0.008431513947550108</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005144853540868852</v>
+        <v>0.0176748585984831</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01837091847025313</v>
+        <v>0.06174958828788661</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06737264744487835</v>
+        <v>0.0541953105043713</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01818954998664477</v>
+        <v>0.01680784542483928</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04548027716631417</v>
+        <v>0.01329097482087356</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04190933358593044</v>
+        <v>0.04134220534246078</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005184222964175579</v>
+        <v>0.007703041616687687</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02460250030617123</v>
+        <v>0.04877066098112968</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04153290593959986</v>
+        <v>0.01072241396015338</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05168742843032836</v>
+        <v>0.04770787701499897</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04347424368593023</v>
+        <v>0.01911433683132004</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01052777733213427</v>
+        <v>0.03384322399853329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03302340534996979</v>
+        <v>0.06561375304288197</v>
       </c>
       <c r="V22" t="n">
-        <v>0.06108944537062769</v>
+        <v>0.0656175559741755</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02459365210712009</v>
+        <v>0.02518099047120879</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01439132349496261</v>
+        <v>0.06759426760721544</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05941254476857449</v>
+        <v>0.05625857397322399</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.002490530680437115</v>
+        <v>0.03155166439534824</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.04831716204120703</v>
+        <v>0.02752326203254877</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0627300764900437</v>
+        <v>0.03782016307898362</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.03703221585577276</v>
+        <v>0.05392662161998241</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.002827984106450225</v>
+        <v>0.01901224445904347</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.04096795575521503</v>
+        <v>0.07022695556310188</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.07955768742398742</v>
+        <v>0.03229077108942831</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0741731902186363</v>
+        <v>0.02031139443683125</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1487229446749218</v>
+        <v>0.1801501288294781</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1393375764812549</v>
+        <v>0.1473181731221099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005369297843293841</v>
+        <v>0.03340563916397251</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005749632982227057</v>
+        <v>0.0153732748657453</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002352298850470277</v>
+        <v>0.05398404510601508</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05599610700925103</v>
+        <v>0.07241060067082693</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07656746996361853</v>
+        <v>0.06850965889173556</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05915030886339131</v>
+        <v>0.06385460679429898</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003185481206958405</v>
+        <v>0.01171140391998437</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02343801359622128</v>
+        <v>0.06920889189580721</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01584577556852378</v>
+        <v>0.009664618385416074</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02527067413958841</v>
+        <v>0.0056915342099199</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008140749612116627</v>
+        <v>0.01593281218420588</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.08935781918602376</v>
+        <v>0.02747227488778824</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04143169742159618</v>
+        <v>0.01485360881076392</v>
       </c>
       <c r="S23" t="n">
-        <v>0.006663206554709364</v>
+        <v>0.02332709963695955</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05381883771749524</v>
+        <v>0.006761917901344536</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09680996103775415</v>
+        <v>0.07554337338728163</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0142617357472466</v>
+        <v>0.0406385233874906</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01007573948474039</v>
+        <v>0.00170205148372391</v>
       </c>
       <c r="X23" t="n">
-        <v>0.009149585525196256</v>
+        <v>0.03093333329280118</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0194841997037022</v>
+        <v>0.002036136447676695</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.09771001906400324</v>
+        <v>0.04211370887524916</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03395236059151364</v>
+        <v>0.03071801250656125</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06460718203762866</v>
+        <v>0.02934361404598994</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.02432135919230475</v>
+        <v>0.06466126652587742</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.04936449680045602</v>
+        <v>0.06597389573423344</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.02667097272699596</v>
+        <v>0.003598162771897357</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.03670093315956032</v>
+        <v>0.05673623138632784</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.04455408441341289</v>
+        <v>0.06383970283010544</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2367940650676208</v>
+        <v>0.2534484925931512</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1052100520860668</v>
+        <v>0.104799769056282</v>
       </c>
       <c r="F24" t="n">
-        <v>0.009746011181510909</v>
+        <v>0.02776922192982884</v>
       </c>
       <c r="G24" t="n">
-        <v>0.009385420673322445</v>
+        <v>0.05922146814070237</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02797683656333771</v>
+        <v>0.0563469497580437</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00720649035852399</v>
+        <v>0.008445239258991634</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01316769180328111</v>
+        <v>0.004570842345025096</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03449294357281518</v>
+        <v>0.02834090710065916</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02125473104278795</v>
+        <v>0.007175886134789105</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07033757656026576</v>
+        <v>0.04957436940949099</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06896490627709918</v>
+        <v>0.006633791379721254</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04871860368041572</v>
+        <v>0.07076327353557124</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05564943798755761</v>
+        <v>0.05676386695694041</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03017767838590429</v>
+        <v>0.01898337699240983</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06278064955848778</v>
+        <v>0.0216215709840873</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04884895976997223</v>
+        <v>0.009995069960619177</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04106201320268482</v>
+        <v>0.02484506802172111</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01738080158765958</v>
+        <v>0.01743558128105708</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04504272911070865</v>
+        <v>0.05468293377950769</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05204747231131814</v>
+        <v>0.01587257059557095</v>
       </c>
       <c r="X24" t="n">
-        <v>0.007894434117369065</v>
+        <v>0.002621549300804606</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.05052914161354696</v>
+        <v>0.06391245760519408</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01075235611719373</v>
+        <v>0.0339969836335571</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02725173555839097</v>
+        <v>0.04348339235120612</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.05764194283242881</v>
+        <v>0.06954191726108488</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.05664255557750478</v>
+        <v>0.05469899770553491</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.04473535211110165</v>
+        <v>0.07032670858545093</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.05380702970458801</v>
+        <v>0.03131490743679748</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01543389242179895</v>
+        <v>0.02840336642271365</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01107060631842403</v>
+        <v>0.06265773213291943</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.03295665704837658</v>
+        <v>-0.01288427524032425</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1250340295421501</v>
+        <v>0.1366572525210277</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0176396360154815</v>
+        <v>0.06841025174995782</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06195484978536917</v>
+        <v>0.04053287033677051</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01470614541773736</v>
+        <v>0.03634561698191028</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0006754865894840101</v>
+        <v>0.005889897265306409</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0223310946726903</v>
+        <v>0.02941136162001366</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08333694913957426</v>
+        <v>0.07869851741090415</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04126663534372281</v>
+        <v>0.07736332019583853</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01179296182811245</v>
+        <v>0.007733209700095357</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04014017764211454</v>
+        <v>0.001749959076633232</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0366096906636739</v>
+        <v>0.05477452721251166</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01560664671135355</v>
+        <v>0.05987235765498899</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01991187727092011</v>
+        <v>0.01952566881152738</v>
       </c>
       <c r="R25" t="n">
-        <v>0.003606683000530276</v>
+        <v>0.0285272616694764</v>
       </c>
       <c r="S25" t="n">
-        <v>0.005613057968697728</v>
+        <v>0.005580011299864417</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05947120186982947</v>
+        <v>0.06025221004776066</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003099579707884544</v>
+        <v>0.03828024842561589</v>
       </c>
       <c r="V25" t="n">
-        <v>0.08010578060878801</v>
+        <v>0.05770852661153791</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01958750071939568</v>
+        <v>0.05092531347188397</v>
       </c>
       <c r="X25" t="n">
-        <v>0.008032792424915339</v>
+        <v>0.004523361723058744</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.06965054395937545</v>
+        <v>0.05675230335689481</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.07107758415351441</v>
+        <v>0.03043905256547151</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02185620590027038</v>
+        <v>0.01790775596019261</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.03312404939401722</v>
+        <v>0.0528613822314929</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0808114229454365</v>
+        <v>0.03565617056676353</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.07375759692975142</v>
+        <v>0.06979847089374536</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.008228211024719396</v>
+        <v>0.004854781717572338</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01719001414548915</v>
+        <v>0.003345876642562798</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.07881562416715113</v>
+        <v>0.002279714799647842</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.03275574835578607</v>
+        <v>0.004498444500919158</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1130445924085024</v>
+        <v>0.1110504830013728</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02546174456421852</v>
+        <v>0.07897554958403714</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07713851369774005</v>
+        <v>0.04676868258732683</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04193990838476645</v>
+        <v>0.02250615368250243</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03317096994150476</v>
+        <v>0.005730898867113511</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04849772404933066</v>
+        <v>0.00568685234266601</v>
       </c>
       <c r="K26" t="n">
-        <v>0.007136943616255412</v>
+        <v>0.00358649194132241</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07950178553706468</v>
+        <v>0.00228433981569253</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02294965739832843</v>
+        <v>0.0784367827710391</v>
       </c>
       <c r="N26" t="n">
-        <v>0.06022446720557257</v>
+        <v>0.05017763605824321</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0007461012857192346</v>
+        <v>0.0704051352221525</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01138532409202993</v>
+        <v>0.05201144923079608</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.05553367627976816</v>
+        <v>0.03206679477564237</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01101376228874225</v>
+        <v>0.005225863192818511</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01647771280110972</v>
+        <v>0.06137638448185488</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0863603359754406</v>
+        <v>0.0369328061023474</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02282089357125422</v>
+        <v>0.009422507827032524</v>
       </c>
       <c r="V26" t="n">
-        <v>0.06428204044060655</v>
+        <v>0.08147479830220587</v>
       </c>
       <c r="W26" t="n">
-        <v>0.007054340109426633</v>
+        <v>0.02922493716726438</v>
       </c>
       <c r="X26" t="n">
-        <v>0.04677294577477038</v>
+        <v>0.02234616017888787</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.02396402066661542</v>
+        <v>0.03925271570464189</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01143854427554714</v>
+        <v>0.01197192785615228</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03265296520371085</v>
+        <v>0.002901101802357964</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.00972135682969159</v>
+        <v>0.005939799788316672</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.06212363162816548</v>
+        <v>0.05417149645944462</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.04113823788083346</v>
+        <v>0.07526808021053764</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.08871708420119724</v>
+        <v>0.07815107089505269</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.005051175082080701</v>
+        <v>0.01092481337784981</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.006724137218508897</v>
+        <v>0.02677876977470085</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1822281340151547</v>
+        <v>0.2190753399039995</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1292773114879612</v>
+        <v>0.1926561065141275</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02007856991110392</v>
+        <v>0.0459882350968104</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05185062280482045</v>
+        <v>0.08282562878410042</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001245864849032425</v>
+        <v>0.003363844231897074</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00344265121335549</v>
+        <v>0.07746784335751747</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02287425123725582</v>
+        <v>0.007011520550762168</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01170865229953957</v>
+        <v>0.04664881253234333</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08997779512792059</v>
+        <v>0.0732621966268575</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001069048892822712</v>
+        <v>0.004304001554618502</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0448103992920607</v>
+        <v>0.002457571919803383</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03160111195806128</v>
+        <v>0.06510821036281779</v>
       </c>
       <c r="P27" t="n">
-        <v>0.008674822697542313</v>
+        <v>0.0006937670788654764</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.06510475011640525</v>
+        <v>0.0362697947005883</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02225907653508136</v>
+        <v>0.04601460743627877</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0004392095892832042</v>
+        <v>0.08191127387841776</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03126344789072191</v>
+        <v>0.00830784468355349</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05749005328224206</v>
+        <v>0.00914848541794269</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03950851462478717</v>
+        <v>0.01169612096313129</v>
       </c>
       <c r="W27" t="n">
-        <v>0.06338124009745655</v>
+        <v>0.02793114532312503</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01598192778013786</v>
+        <v>0.01087655532547049</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.09687923105586516</v>
+        <v>0.0334012101949912</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02878073151831739</v>
+        <v>0.05842737372212241</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.05346088769006302</v>
+        <v>0.02372909885161764</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02823176495923536</v>
+        <v>0.05049294943124241</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.09135156093583957</v>
+        <v>0.02592141901153582</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01269385259570166</v>
+        <v>0.07749568865148149</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.07051238269465737</v>
+        <v>0.02515738916227556</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0002902235096979867</v>
+        <v>0.02819929377576542</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.03503735484099171</v>
+        <v>0.0358881173740668</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2108090034680474</v>
+        <v>0.2133173888994717</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1424326427358854</v>
+        <v>0.1434919047481485</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01180698267731104</v>
+        <v>0.01116397588658099</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01287696329956471</v>
+        <v>0.01413450459342988</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06585844805158086</v>
+        <v>0.01001010969539282</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03749946006473999</v>
+        <v>0.02320666438884823</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02637535774280854</v>
+        <v>0.06766076458171782</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01182607455874249</v>
+        <v>0.0432043389980262</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02886285844097509</v>
+        <v>0.04212795090408968</v>
       </c>
       <c r="M28" t="n">
-        <v>0.005484040518520962</v>
+        <v>0.03955236606604404</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02737845468879871</v>
+        <v>0.01768618752270376</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03824316121053618</v>
+        <v>0.02875754822499899</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02619031653131548</v>
+        <v>0.01102310410385648</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03560602772681426</v>
+        <v>0.06197405585552124</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05071820280646116</v>
+        <v>0.03939601727664593</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05925696932238336</v>
+        <v>0.0239370422588734</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04544896207878581</v>
+        <v>0.04986634649671819</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0003919698366877612</v>
+        <v>0.02494453618347514</v>
       </c>
       <c r="V28" t="n">
-        <v>0.07307055688071204</v>
+        <v>0.07834042941524662</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0639175469223114</v>
+        <v>0.04692519645261423</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05702401031992796</v>
+        <v>0.07556994688651646</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02280118003823375</v>
+        <v>0.01701020863769056</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0239456079469351</v>
+        <v>0.002521913222683467</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04243466097190945</v>
+        <v>0.007604324111239927</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.006261916998223515</v>
+        <v>0.02001092664820044</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0257546169221475</v>
+        <v>0.03421470194798782</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06872867043657693</v>
+        <v>0.06990952078478066</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.07745720403390609</v>
+        <v>0.02783460903149625</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.0001110685779095148</v>
+        <v>0.04340252064890708</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.05466871039518028</v>
+        <v>0.06801018917571386</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.04219148548236207</v>
+        <v>0.02794416365368594</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1768099192370145</v>
+        <v>0.1691998484732662</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07674191771893592</v>
+        <v>0.06636841334992795</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06133672267993517</v>
+        <v>0.007226753399849662</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03510450139317588</v>
+        <v>0.04545823530420003</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04044902442279964</v>
+        <v>0.01074437009060761</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0241200924653757</v>
+        <v>0.005503902413121876</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02610995719117704</v>
+        <v>0.05007864126568532</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002403312918457828</v>
+        <v>0.02822419216397764</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0125420566036359</v>
+        <v>0.01006416254553712</v>
       </c>
       <c r="N29" t="n">
-        <v>0.00831512602502031</v>
+        <v>0.01363701171866788</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04565792870908472</v>
+        <v>0.02301337443114207</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07171244817379568</v>
+        <v>0.002227728831706308</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02280941170034067</v>
+        <v>0.02264584685519153</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07123085527767578</v>
+        <v>0.01298593624188502</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01565619830210083</v>
+        <v>0.06949909319790763</v>
       </c>
       <c r="T29" t="n">
-        <v>0.00206923861715023</v>
+        <v>0.05164708593575269</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04345291760241392</v>
+        <v>0.03740779056416238</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03290151821280989</v>
+        <v>0.06799303738439237</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02624661277743854</v>
+        <v>0.07877844787295739</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01952121487942648</v>
+        <v>0.02076396055518753</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01084180658195071</v>
+        <v>0.03688120280305245</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07466113270270043</v>
+        <v>0.07485530534468782</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07635945233285797</v>
+        <v>0.07495147976440041</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.009575432274338014</v>
+        <v>0.01219200844112037</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02610731665668951</v>
+        <v>0.05305426721859745</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.05077422696065392</v>
+        <v>0.03385473336937572</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0341767451043214</v>
+        <v>0.01953200197850731</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0111031262586948</v>
+        <v>0.01412925093327629</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.06801970545704315</v>
+        <v>0.05628176602512202</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1079567773842046</v>
+        <v>0.09717765027549695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1174554259782614</v>
+        <v>0.1181021969579273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006752361961189982</v>
+        <v>0.02012462779761622</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08168681556759719</v>
+        <v>0.009465093081399626</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05787117316647781</v>
+        <v>0.01868229397990112</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03722710570658365</v>
+        <v>0.03709925744491909</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01833027617318912</v>
+        <v>0.0208049232164451</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01043709077902733</v>
+        <v>0.001514542478263733</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02725175061850852</v>
+        <v>0.03042995921761618</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01146063917376587</v>
+        <v>0.02003294758502139</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0421122757080792</v>
+        <v>0.06884120728896691</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0124091398764193</v>
+        <v>0.002992761585500588</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01986118273282866</v>
+        <v>0.01413712066110369</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03523741276488794</v>
+        <v>0.04965953631884715</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03494637015357006</v>
+        <v>0.0448554579426257</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04757803768505121</v>
+        <v>0.04624934182814319</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08107765026724793</v>
+        <v>0.05721885633967104</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04745038584787228</v>
+        <v>0.02662514182226189</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07659200999665808</v>
+        <v>0.01468797657759342</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02520568323217951</v>
+        <v>0.005043777963226215</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05946361261517079</v>
+        <v>0.06923729125326546</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003082010815242488</v>
+        <v>0.02046374059026525</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0235839746166764</v>
+        <v>0.06325666180064619</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05054152923540339</v>
+        <v>0.04022980153173232</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05430294448814721</v>
+        <v>0.07245692616319908</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.004452983975049913</v>
+        <v>2.768425000758906e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0309342004910507</v>
+        <v>0.06537472591872227</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04666726912485447</v>
+        <v>0.05557747456640234</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03049409737347597</v>
+        <v>0.07231462294782552</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.02299001585379496</v>
+        <v>0.05259624784881176</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0498627309343872</v>
+        <v>0.08900859163381439</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1360497869619483</v>
+        <v>0.1571886492830032</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06649379050758526</v>
+        <v>0.07928355176569712</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004423718697022024</v>
+        <v>0.04088401900594895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06935733841863846</v>
+        <v>0.08342136155881334</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02160941060277454</v>
+        <v>0.002524491046999206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01377675575630935</v>
+        <v>0.0004543124575994446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006615690485843987</v>
+        <v>0.002781459493733143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04416078132202863</v>
+        <v>0.05487008702010283</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04544955226288304</v>
+        <v>0.003189994859711874</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06535973645696543</v>
+        <v>0.05244027181466473</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02389821208626334</v>
+        <v>0.04278251637581299</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0009457150775589479</v>
+        <v>0.009687420202615539</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02295319172110656</v>
+        <v>0.04455265910310547</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02641165886968615</v>
+        <v>0.07065330187402995</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03413629914256406</v>
+        <v>0.005679222030458926</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02640213946460901</v>
+        <v>0.04313881776553545</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05787743626492553</v>
+        <v>0.01169885903821646</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05549120231921414</v>
+        <v>0.04686827131239388</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05079279552696048</v>
+        <v>0.07484942366401912</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05347468900278135</v>
+        <v>0.03119793284054372</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01865058731693644</v>
+        <v>0.077896285551929</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03725426338239515</v>
+        <v>0.06626067680171417</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07528824255143815</v>
+        <v>0.0002959175012440011</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04796650191715281</v>
+        <v>0.01581011221429159</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01472020942211213</v>
+        <v>0.005273295454854918</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03234229028636727</v>
+        <v>0.00761734419073894</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05687270209645009</v>
+        <v>0.08292539867872606</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01172713741956431</v>
+        <v>0.03877098490430038</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01554795162186337</v>
+        <v>0.004192011472198828</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1540116713702792</v>
+        <v>0.135684081913601</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1276892279521103</v>
+        <v>0.1276623997974202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002588122484883438</v>
+        <v>0.01552763606704099</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06092741113081994</v>
+        <v>0.004631057189452676</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04495023656803774</v>
+        <v>0.07490807527693612</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02164531136332323</v>
+        <v>0.07450177346855669</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00277971850665911</v>
+        <v>0.01549838355035643</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02886470015540662</v>
+        <v>0.002957521351912155</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07470956252268851</v>
+        <v>0.04120472611660345</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03376994818220439</v>
+        <v>0.003663270388773466</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0794051690448508</v>
+        <v>0.01824402450925737</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03414987412842755</v>
+        <v>0.01687826888012122</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004435154203450258</v>
+        <v>0.04927849499117953</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02902501480875505</v>
+        <v>0.0213886323671989</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0847508758554216</v>
+        <v>0.06620391635027031</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02054502283480306</v>
+        <v>0.001362043527925442</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07510986550732754</v>
+        <v>0.05281356220623409</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05219950099760145</v>
+        <v>0.08355440500290121</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02263540053801007</v>
+        <v>0.05363267689509699</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004954038631532494</v>
+        <v>0.002506275841988191</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04246726423098428</v>
+        <v>0.006142948662292578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.006936365538845703</v>
+        <v>0.03660703701437467</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02819304036031936</v>
+        <v>0.08296260068902607</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03612070588980067</v>
+        <v>0.02398502953882171</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05273736862597855</v>
+        <v>0.07462364557654658</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.009101840037757715</v>
+        <v>0.02808423616754753</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01171661238953953</v>
+        <v>0.006337085368004151</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05408107014508214</v>
+        <v>0.01444765128081092</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02347031042084944</v>
+        <v>0.06939651301699888</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05773049489663973</v>
+        <v>0.05865850870377162</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.3231786052951287</v>
+        <v>-0.3935677481740325</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1897965328969206</v>
+        <v>0.1714257479748571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07220057168927065</v>
+        <v>0.08526002269732789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02774504587465362</v>
+        <v>0.05331739477746684</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01633253904193642</v>
+        <v>0.004616108977113191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01884590000375857</v>
+        <v>0.03746369487044854</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05498981199929918</v>
+        <v>0.05116148374552348</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07821433221344343</v>
+        <v>0.04926810377098201</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01214241075133199</v>
+        <v>0.02649942677029326</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04801348682761021</v>
+        <v>0.03584407435418852</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05172160714624485</v>
+        <v>0.04028321210243776</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00775759828740627</v>
+        <v>0.001908677756135456</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02651878673993558</v>
+        <v>0.003288849217194021</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02525799807985138</v>
+        <v>0.001443165345422142</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05188278825466173</v>
+        <v>0.07749698208273513</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0574822618694065</v>
+        <v>0.0336527105703803</v>
       </c>
       <c r="T5" t="n">
-        <v>0.006985740754172141</v>
+        <v>0.03055592876315741</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04857252097517158</v>
+        <v>0.05356242019955283</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03610767259654547</v>
+        <v>0.08789110007636769</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04233686617813233</v>
+        <v>0.02976271458446017</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02910522001365603</v>
+        <v>0.006688926603597577</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0607888994083088</v>
+        <v>0.01860960834394786</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003643876297962008</v>
+        <v>0.007463351875223086</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05376403859002155</v>
+        <v>0.09008662229356269</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06756837430634187</v>
+        <v>0.012211209569346</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.06343671860634197</v>
+        <v>0.07189985531415038</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.294805310942319e-05</v>
+        <v>0.0240421342412584</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.005602329760818687</v>
+        <v>0.01958826409197852</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.008728437427892421</v>
+        <v>0.01305316460038573</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02422121825271527</v>
+        <v>0.03308079240536303</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3674528162654716</v>
+        <v>-0.3338609746858758</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2287689722013091</v>
+        <v>0.2271272505886624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01933851321196812</v>
+        <v>0.006919806665597213</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01722985231425925</v>
+        <v>0.02166210735694913</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001026320991936565</v>
+        <v>0.02731626787341232</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02085037839624291</v>
+        <v>0.009843694926846206</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01097873345091888</v>
+        <v>0.01113420088428987</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007765644580420757</v>
+        <v>0.02752353196864034</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0420074401554414</v>
+        <v>0.01178043465759032</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04435133006396263</v>
+        <v>0.03418769410974126</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02527678302062013</v>
+        <v>0.02741445318304198</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00912222872123465</v>
+        <v>0.005238329891144392</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03134547079870913</v>
+        <v>0.06427752343821486</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06082528495901988</v>
+        <v>0.01085310888921675</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06291205420048175</v>
+        <v>0.06263774877612245</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00159188345493258</v>
+        <v>0.06162940404693984</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05737774810882797</v>
+        <v>0.06118403886507659</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02936799216283545</v>
+        <v>0.00928925546166676</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0428441375383928</v>
+        <v>0.05784348530684311</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05861399473525384</v>
+        <v>0.07210307693495956</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05922869486756168</v>
+        <v>0.04280436555675868</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06232617954583351</v>
+        <v>0.05372313732778812</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06771111945361796</v>
+        <v>0.03205005285354369</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.002203130932271682</v>
+        <v>0.05243769919931349</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06917853011182599</v>
+        <v>0.04587831290031483</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03754706480607995</v>
+        <v>0.009911985863724394</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02839394004659628</v>
+        <v>0.02500364410332539</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03988656559520828</v>
+        <v>0.01915291598369212</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.05112609170297005</v>
+        <v>0.07135409137091134</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.03957289207257596</v>
+        <v>0.06484563160433507</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1916545661959816</v>
+        <v>0.2102466974330348</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2688878371828647</v>
+        <v>0.2493121627437943</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05599936297699692</v>
+        <v>0.06306937625282691</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04671606768449153</v>
+        <v>0.07416421767139367</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07227861197471526</v>
+        <v>0.003003324848405215</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03207409413968371</v>
+        <v>0.006685723023812599</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003965588596616044</v>
+        <v>0.03164576225236637</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04798406627601552</v>
+        <v>0.07275786243025976</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01776466778706507</v>
+        <v>0.06367704801326986</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03027575872048543</v>
+        <v>0.02155133041931378</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03579083849427991</v>
+        <v>0.004490987013932157</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01893349661143564</v>
+        <v>0.02479702814494404</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0502504178277914</v>
+        <v>0.05276921964979379</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003019096521463883</v>
+        <v>0.006224949500098433</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06723137224691848</v>
+        <v>0.07041055401690338</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0480827092748447</v>
+        <v>0.04911432611087153</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007558910805308702</v>
+        <v>0.04809890223568328</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07606406638041589</v>
+        <v>0.00327192757588979</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007870680271340099</v>
+        <v>0.02002825734192858</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03260018311943547</v>
+        <v>0.06108513242228993</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04703738827792334</v>
+        <v>0.007819325867596946</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03810601968207147</v>
+        <v>0.03120679622562403</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.000924078617928565</v>
+        <v>0.03720584017294819</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.932319830260298e-05</v>
+        <v>0.04652788729405528</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02112560062922326</v>
+        <v>0.009607630200599012</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01849234952934705</v>
+        <v>0.03499373615972608</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.05519899076256327</v>
+        <v>0.00791923918631334</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01771714210717095</v>
+        <v>0.03798669613307402</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.08925420334888125</v>
+        <v>0.07047332315153075</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.06033210100660196</v>
+        <v>0.0394135966845492</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.3020470976145979</v>
+        <v>0.2741127412843961</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2638661754832328</v>
+        <v>0.2570431969216977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07277928166417755</v>
+        <v>0.03899689292574828</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07434286248837625</v>
+        <v>0.03778861625336442</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01256556389256257</v>
+        <v>0.003095088026279353</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04222715196332442</v>
+        <v>0.05154477179819941</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02413435140951764</v>
+        <v>0.02583956407162768</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02051689513598955</v>
+        <v>0.005066805950062443</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004728812358642459</v>
+        <v>0.02662406758849576</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04217093492585203</v>
+        <v>0.03588726639915951</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01317784459834857</v>
+        <v>0.0187355592517395</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03272107580189157</v>
+        <v>0.02087643422335202</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0231744205879031</v>
+        <v>0.01843532811414531</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002360485815760479</v>
+        <v>0.01362273728777239</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06163098305428038</v>
+        <v>0.07606559915843708</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04225024778416703</v>
+        <v>0.05454895605688865</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06234752186820212</v>
+        <v>0.03847191432245343</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002935242677540602</v>
+        <v>0.002170547408350597</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06551243978073951</v>
+        <v>0.0798446899727223</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02481359050472599</v>
+        <v>0.07024484620563316</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03556859788265615</v>
+        <v>0.003186812645980854</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0703542724465084</v>
+        <v>0.02125813237245831</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01133176241101741</v>
+        <v>0.01105982160187129</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.002192967798279205</v>
+        <v>0.008280969274905013</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05972023967974183</v>
+        <v>0.04453959633406599</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03359229959643209</v>
+        <v>0.05080717699178324</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.02339140650735045</v>
+        <v>0.07043155851538715</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01719269482469023</v>
+        <v>0.02897296922584854</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.07874501468338753</v>
+        <v>0.0710628437733572</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.04352103785793487</v>
+        <v>0.07254043424991109</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1001620517788919</v>
+        <v>0.1033787296731483</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.311137897696692</v>
+        <v>0.3240249874236782</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1048426302238137</v>
+        <v>0.07952013576463643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009915105450372797</v>
+        <v>0.04603789492764677</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04244901482273856</v>
+        <v>0.08068719889697172</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02116774446773552</v>
+        <v>0.001685933259691178</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03147157960652202</v>
+        <v>0.02990807149138895</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07048044631000855</v>
+        <v>0.0608537541196106</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01675622106324891</v>
+        <v>0.006793158373322093</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03075651863296486</v>
+        <v>0.02181890437745738</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05343010563506158</v>
+        <v>0.03688232533724431</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05180061214435941</v>
+        <v>0.0773032925546808</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0366030175105819</v>
+        <v>0.0004351211475911396</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02131609821588063</v>
+        <v>0.05676715171796394</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04940462534141634</v>
+        <v>0.07029047216416297</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07780407966286981</v>
+        <v>0.03083120109736927</v>
       </c>
       <c r="T9" t="n">
-        <v>0.003564644648543739</v>
+        <v>0.01184189078768487</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01119083952915652</v>
+        <v>0.03577338344034765</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1005492656231738</v>
+        <v>0.02362136700240626</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0002496512135924718</v>
+        <v>0.008476359682733728</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01823978617095382</v>
+        <v>0.0003563323960391688</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01864167732119218</v>
+        <v>0.02802630397923746</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.06069457382501323</v>
+        <v>0.04845947644638142</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001076795049146389</v>
+        <v>0.02881618806362892</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.05893102123588775</v>
+        <v>0.06011891812805062</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.003904031783010734</v>
+        <v>0.01707610075688367</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03396502146365716</v>
+        <v>0.02091168059562187</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01783718407218076</v>
+        <v>0.03078544002643702</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.004665214265394471</v>
+        <v>0.06759942173288588</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.04829249471152249</v>
+        <v>0.01832252173192395</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1480825482635562</v>
+        <v>0.1325409579881081</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1875266618816754</v>
+        <v>0.1959093683378192</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02158622745667456</v>
+        <v>0.06645559934918464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07572356442763445</v>
+        <v>0.01115354693604797</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01794784261526347</v>
+        <v>0.0002546516020226515</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02784190217736266</v>
+        <v>0.07034853173922347</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01679712921486224</v>
+        <v>0.0009105915839937481</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06083037751304371</v>
+        <v>0.03837188605021214</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01911865754246682</v>
+        <v>0.0153492802686178</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01369089337926784</v>
+        <v>0.04635404460065231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003432858856836916</v>
+        <v>0.001935316429659865</v>
       </c>
       <c r="O10" t="n">
-        <v>7.024929694898683e-05</v>
+        <v>0.01648426335766837</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08660937935484861</v>
+        <v>0.01143796279034236</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05850474118316133</v>
+        <v>0.03736531811603849</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01293334499321659</v>
+        <v>0.05771437960301282</v>
       </c>
       <c r="S10" t="n">
-        <v>0.003667095651407618</v>
+        <v>0.002004167267638475</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08525085823993106</v>
+        <v>0.08517396802510513</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009005497689938465</v>
+        <v>0.003580881297380564</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01038321162860683</v>
+        <v>0.01760683635264237</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06980559532525125</v>
+        <v>0.05361890668472016</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02521398917715314</v>
+        <v>0.08080757901769538</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0395346363917868</v>
+        <v>0.05972439103787703</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.005354950603963272</v>
+        <v>0.02003988371182044</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.07617011067045638</v>
+        <v>0.007242487081620502</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.06537145884250177</v>
+        <v>0.09473429407506045</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.004889227236649286</v>
+        <v>0.02245707273972131</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01874518616825474</v>
+        <v>0.02408245019114502</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0745949627743232</v>
+        <v>0.07568313092208252</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02614672667138353</v>
+        <v>0.02835702613384797</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.07077932491680444</v>
+        <v>0.05075155303496585</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.06555620062597109</v>
+        <v>0.05430473058539857</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3033133217827013</v>
+        <v>0.2743966016590092</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07176932816112627</v>
+        <v>0.06923505345027059</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03510840832587517</v>
+        <v>0.01827916697516414</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03855208733905595</v>
+        <v>0.05100952002122131</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08076174514262732</v>
+        <v>0.07273793187081833</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03877512698162092</v>
+        <v>0.02664402698925452</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07704154566752852</v>
+        <v>0.07920171223706364</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04918688228695461</v>
+        <v>0.05638219186461139</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002814578274944304</v>
+        <v>0.01079448526597815</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05508607514740794</v>
+        <v>0.02887764383711822</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002643277630843966</v>
+        <v>0.02044606917265267</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04046876560946041</v>
+        <v>0.06762409350629529</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08443584155255029</v>
+        <v>0.06776673680936651</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02035346343514836</v>
+        <v>0.04889941593689282</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02012421531874905</v>
+        <v>0.01477360553274674</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0007789634457731291</v>
+        <v>0.01328281622018661</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02191139925111117</v>
+        <v>0.02545680144780585</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004631906644251701</v>
+        <v>0.03431318058532801</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01895832574507483</v>
+        <v>0.06987186663051505</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02031510259763991</v>
+        <v>0.05362044666785394</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01365386578687015</v>
+        <v>0.01184557780955882</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0117826798339327</v>
+        <v>0.0133190454231157</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0331373107545332</v>
+        <v>0.03344016957636934</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.04809853665197001</v>
+        <v>0.0022197468804688</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0364601065836662</v>
+        <v>0.07370022479278862</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.07209901438332417</v>
+        <v>0.01285829755065547</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.08766646520503014</v>
+        <v>0.01596135160724978</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.004963698883171776</v>
+        <v>0.005711423746909921</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.008421283359757984</v>
+        <v>0.001727397591739651</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04974311481835503</v>
+        <v>0.03393333233658978</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1549801166625333</v>
+        <v>0.1564073588836687</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006025146063803776</v>
+        <v>0.01782161197204557</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005942736929419891</v>
+        <v>0.06686088236946887</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02099395225861102</v>
+        <v>0.009425526334374325</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0202338474130618</v>
+        <v>0.00751403032499671</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02810192602540578</v>
+        <v>0.01454528353171306</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006848953499605842</v>
+        <v>0.028375055407242</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06883798492533826</v>
+        <v>0.05683062362591345</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01286844387777904</v>
+        <v>0.06869124431794685</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04064906744485847</v>
+        <v>0.005282163845285124</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02572179694048279</v>
+        <v>0.05274374395926035</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01832735753058513</v>
+        <v>0.07005220559831649</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.005635356411359451</v>
+        <v>0.01793320992281121</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03803488887719374</v>
+        <v>0.00711166126264344</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03962140290970661</v>
+        <v>0.008705686056035448</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08272715678428078</v>
+        <v>0.04161473908847462</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03866170814644682</v>
+        <v>0.01660662548662083</v>
       </c>
       <c r="V12" t="n">
-        <v>0.08018944379510014</v>
+        <v>0.06088692995832506</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03321390212189576</v>
+        <v>0.009866547332037096</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04140008949394063</v>
+        <v>0.05901570868356331</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03109189880469765</v>
+        <v>0.03806217809974535</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04364803475641918</v>
+        <v>0.02391411747608864</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02501476502014681</v>
+        <v>0.005791713831729882</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0628508419101252</v>
+        <v>0.08483434319923427</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.03618250036066523</v>
+        <v>0.07232428422168659</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0005180642421363348</v>
+        <v>0.0001182596309228115</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07029179961501691</v>
+        <v>0.08307671730879043</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05705497114240726</v>
+        <v>0.03330254322540666</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.05931196269950961</v>
+        <v>0.03869236392932161</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.08155946344875906</v>
+        <v>0.1337172870606279</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1669566859077363</v>
+        <v>0.1672014756470411</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01359895923879942</v>
+        <v>0.005333237098597858</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06613823129315773</v>
+        <v>0.01033330175312223</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0152901798342076</v>
+        <v>0.000555710366893335</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0159031045795195</v>
+        <v>0.07028771639305927</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02757905426355906</v>
+        <v>0.04827501256424897</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04146362777432949</v>
+        <v>0.002237587043674721</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01571140364658156</v>
+        <v>0.03614204766284387</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05086036862268022</v>
+        <v>0.03404371734629601</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01247906228700035</v>
+        <v>0.01877687531979502</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01378410701486663</v>
+        <v>0.005293970730496293</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07192538799788306</v>
+        <v>0.07237709088712693</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04388754376138523</v>
+        <v>0.02960323993340083</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003528416455607462</v>
+        <v>0.02696583544477546</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002275630613981039</v>
+        <v>0.0229337254027028</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03913825657428971</v>
+        <v>0.00808940166041632</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0842429921257631</v>
+        <v>0.05044894556027947</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05810035672246706</v>
+        <v>0.008551819607985038</v>
       </c>
       <c r="W13" t="n">
-        <v>0.06904589313744024</v>
+        <v>0.06344859888264751</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0136464620122269</v>
+        <v>0.03528051455273598</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.07809889066914651</v>
+        <v>0.07278025272321735</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01862816477446439</v>
+        <v>0.02366371654934368</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01807698290676887</v>
+        <v>0.02471056189891704</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.05029781360171876</v>
+        <v>0.05795510041534718</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.002245811705269842</v>
+        <v>0.04679315897284492</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03610886041760653</v>
+        <v>0.03451863880017197</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.04103021247785389</v>
+        <v>0.08115551167924052</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01216045694100773</v>
+        <v>0.02757678996966396</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.08475376855041809</v>
+        <v>0.08186792078015531</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1278482329377386</v>
+        <v>0.08785331497596693</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1405998707489102</v>
+        <v>0.1430213599389016</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04609118932013458</v>
+        <v>0.01951669151541514</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07742970215419943</v>
+        <v>0.02268090071409348</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00937769766643045</v>
+        <v>0.01640222590123775</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001045032664751026</v>
+        <v>0.0504117426070726</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05856815753769443</v>
+        <v>0.01287176935723547</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003005399088952206</v>
+        <v>0.01139825488365543</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02079707451621206</v>
+        <v>0.00556386524973296</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03835280331642672</v>
+        <v>0.02869494849742917</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01384922938982289</v>
+        <v>0.06027237704472291</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07329924714424491</v>
+        <v>0.02308138468725566</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01916353562306649</v>
+        <v>0.02597696636892967</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03001899788563339</v>
+        <v>0.04456629405749494</v>
       </c>
       <c r="R14" t="n">
-        <v>0.03695253192626995</v>
+        <v>0.04731934983206199</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0487245180738089</v>
+        <v>0.06116611496501925</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04358650340698386</v>
+        <v>0.04076521685506897</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004313481126547332</v>
+        <v>0.01933393504121653</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08269524623389032</v>
+        <v>0.06186740572128573</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07167368919376733</v>
+        <v>0.04821007426887231</v>
       </c>
       <c r="X14" t="n">
-        <v>0.008969914891230798</v>
+        <v>0.06062146728099669</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05404013297018289</v>
+        <v>0.05453220579403585</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01253835883394246</v>
+        <v>0.05771885170237698</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02790180220886954</v>
+        <v>0.03755716863662113</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05810448676341069</v>
+        <v>0.04257891068901173</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02268834524772109</v>
+        <v>0.02727149503762157</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0006769438843192841</v>
+        <v>0.000902635591703138</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.07109832890496275</v>
+        <v>0.05771414951057766</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04623958430452563</v>
+        <v>0.04949632394894025</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.01879806572199861</v>
+        <v>0.01150727424031516</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.179050365125718</v>
+        <v>0.2447859973650575</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1510929721651247</v>
+        <v>0.1495195477646838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01276420001884295</v>
+        <v>0.002980323773867745</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06330250482836954</v>
+        <v>0.06731646071850574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06511571785954151</v>
+        <v>0.02374593600478603</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04719376551966973</v>
+        <v>0.01119051582020025</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007062837238169512</v>
+        <v>0.006666779054881328</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02764694945169536</v>
+        <v>0.02409352400673539</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02166261342121653</v>
+        <v>0.01929867265438967</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03794643047750985</v>
+        <v>0.06050206875503239</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0493575800556019</v>
+        <v>0.06125613667265133</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06455484919370877</v>
+        <v>0.03770089698014249</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05021635893449879</v>
+        <v>0.05186101217606767</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05260006255467487</v>
+        <v>0.06712070948292923</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02718267205720842</v>
+        <v>0.03254503997807973</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04327976933918914</v>
+        <v>0.005922030322546458</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03501304646852915</v>
+        <v>0.06187079598843508</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006844311232089416</v>
+        <v>0.02851126942062963</v>
       </c>
       <c r="V15" t="n">
-        <v>0.04790052011170236</v>
+        <v>0.03026275564837846</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03296599340732008</v>
+        <v>0.01466225399778239</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01490554867595242</v>
+        <v>0.05591027614808155</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01706386904539</v>
+        <v>0.05426487091171545</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02707392273057879</v>
+        <v>0.01623216589831434</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05716354043872787</v>
+        <v>0.04155145811635258</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.06201006800537209</v>
+        <v>0.04732008389578037</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01407249408276701</v>
+        <v>0.04216112703437343</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01673504130631195</v>
+        <v>0.005899851327176514</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.04672390115790397</v>
+        <v>0.06686605618023984</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.044947300534072</v>
+        <v>0.06138435413218076</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.006694131853385895</v>
+        <v>0.0009025748997440517</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2636924799684676</v>
+        <v>0.2538114800900541</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1221233378712075</v>
+        <v>0.1192372015684471</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04406956024106517</v>
+        <v>0.05276413361073852</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01404892977615833</v>
+        <v>0.004445740281436765</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002946962185712287</v>
+        <v>0.0176397675655886</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007380555714985868</v>
+        <v>0.02052131455449758</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01241917058024716</v>
+        <v>0.06718124760024786</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001257283952317051</v>
+        <v>0.003331400538314494</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06423303871816666</v>
+        <v>0.06788072465219282</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05808869062908089</v>
+        <v>0.0605568566433304</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05795417724187294</v>
+        <v>0.02339323880190057</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0554597154773465</v>
+        <v>0.02684968955090186</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05595400771494991</v>
+        <v>0.01402268958269692</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06608857796862209</v>
+        <v>0.01622976654338602</v>
       </c>
       <c r="R16" t="n">
-        <v>8.856193870385168e-05</v>
+        <v>0.01743747612330019</v>
       </c>
       <c r="S16" t="n">
-        <v>0.007194136560163868</v>
+        <v>0.07445171080261492</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01552781468814087</v>
+        <v>0.01609222516312218</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02432447371376092</v>
+        <v>0.006572271133547091</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03444749471854473</v>
+        <v>0.07070116522990251</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0601043357658882</v>
+        <v>0.05670280084881951</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06386004304774136</v>
+        <v>0.04737169358017981</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.04458465182595308</v>
+        <v>0.042807307093378</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03088311014486276</v>
+        <v>0.08014810203246227</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.03749990612117232</v>
+        <v>0.01098852807950593</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02674079777735625</v>
+        <v>0.00787201245355019</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.03952626912108899</v>
+        <v>0.05697934325794118</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.03102956376072741</v>
+        <v>0.003978870878240462</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.06325246445436074</v>
+        <v>0.03560260919362892</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01951849813415717</v>
+        <v>0.07995976804295461</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06416947399399363</v>
+        <v>0.01751754616161961</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1316674038955023</v>
+        <v>0.1388227429153342</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.12277020753202</v>
+        <v>0.1288923004785034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07497009791221917</v>
+        <v>0.05481716954711884</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03405112951574122</v>
+        <v>0.02604569800175813</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0115753910577872</v>
+        <v>0.00170151635828683</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004007915463604007</v>
+        <v>0.01021854073202438</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01644295896402135</v>
+        <v>0.05858409317294618</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002472702774352967</v>
+        <v>0.008778095646948083</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05213367454553915</v>
+        <v>0.04979273975454846</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000694715978910211</v>
+        <v>0.07173453442694307</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07528139293577235</v>
+        <v>0.06748578448865382</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002500932147784122</v>
+        <v>0.0168527927206585</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04127883530310113</v>
+        <v>0.03933552446303548</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05694850964221939</v>
+        <v>0.03674081885694801</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0653340186494258</v>
+        <v>0.003876788845225578</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05753026626171143</v>
+        <v>0.008450154628980616</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01035447826863297</v>
+        <v>0.04802669339519441</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01710630407570921</v>
+        <v>0.01882350940240406</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05269095676164073</v>
+        <v>0.02901736281733105</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07239774445413033</v>
+        <v>0.01177202030850727</v>
       </c>
       <c r="X17" t="n">
-        <v>0.07428437904439703</v>
+        <v>0.05384460631432202</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03068358427477053</v>
+        <v>0.0714081102138002</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05312245818647353</v>
+        <v>0.06178194408224615</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01442687790850149</v>
+        <v>0.02702844754589504</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.008578327012198659</v>
+        <v>0.02947231772672298</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.006674769963521885</v>
+        <v>0.02899377634431059</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.07601297605194353</v>
+        <v>0.007825296458476108</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01397373921438668</v>
+        <v>0.07313927819776665</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.06412576225681166</v>
+        <v>0.05475870887096097</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.01034510137469233</v>
+        <v>0.02969367667798648</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1701587347576966</v>
+        <v>0.137494947518497</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1178280816491909</v>
+        <v>0.1113561068552353</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00137733815913611</v>
+        <v>0.001778347891333303</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01998805499040313</v>
+        <v>0.01348151249404826</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02213976278185974</v>
+        <v>0.003592727364357451</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07119679056606842</v>
+        <v>0.0751174276595838</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07155751602861847</v>
+        <v>0.01611227237793009</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00479803192751552</v>
+        <v>0.04497535835514393</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07250522420577167</v>
+        <v>0.0283571308828836</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03603188662241709</v>
+        <v>0.01946863275231771</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002891499917776283</v>
+        <v>0.009123217472159825</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05898117246582273</v>
+        <v>0.08167249714195052</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01591357042361193</v>
+        <v>0.01410372693104552</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01313409196302897</v>
+        <v>0.03547864375475378</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06910115575221905</v>
+        <v>0.0394003357684967</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0644336394891542</v>
+        <v>0.04895569506338081</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03491410384084467</v>
+        <v>0.01151518731615835</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00217925931353366</v>
+        <v>0.0165453123923765</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01480470393274772</v>
+        <v>0.07960694580100315</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05588652577760643</v>
+        <v>0.07062113918121268</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03261085843423318</v>
+        <v>0.05169873857387613</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06780504750165348</v>
+        <v>0.07221518209328191</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.05016061503880662</v>
+        <v>0.0398584617302053</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0004521718330748419</v>
+        <v>0.02246060297105067</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.05458652381886998</v>
+        <v>0.009676829203370327</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.06777460121733714</v>
+        <v>0.03086678203531645</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02944902437710153</v>
+        <v>0.02310663950771995</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.02398567580863661</v>
+        <v>0.05126785972400889</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.02704381607928723</v>
+        <v>0.08403597643606674</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.01429733773286363</v>
+        <v>0.004906817124967847</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.02918178016326432</v>
+        <v>0.03369992356945477</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1373438112199035</v>
+        <v>0.1317604109549259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006666216402850106</v>
+        <v>0.002956841937019441</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06705301704923558</v>
+        <v>0.07620455185219562</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03414339786004696</v>
+        <v>0.01036428329894635</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03857231807289806</v>
+        <v>0.0619962088674499</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02857151782914192</v>
+        <v>0.02349682121373369</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0632961535296506</v>
+        <v>0.07105663467709951</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06713897804144642</v>
+        <v>0.07833737029563421</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003135746330862611</v>
+        <v>0.02388390670855539</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04940909907014704</v>
+        <v>0.03556124311879286</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01363218887029275</v>
+        <v>0.02733120415425583</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01055281555136622</v>
+        <v>0.003893068993816557</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01402295914309149</v>
+        <v>0.005984422431152433</v>
       </c>
       <c r="R19" t="n">
-        <v>0.005967479565396799</v>
+        <v>0.002103035006947433</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0657328804104446</v>
+        <v>0.09327979946635605</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04868708707646321</v>
+        <v>0.004606917778502594</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05087970293843642</v>
+        <v>0.02309963950028151</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02253122005467183</v>
+        <v>0.06348608379080702</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06122605599400859</v>
+        <v>0.002066147332963275</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02886597419048768</v>
+        <v>0.08066552609492686</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06819949895182141</v>
+        <v>0.04863603858803167</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.06896865629890195</v>
+        <v>0.01625945615715356</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.006268559248527498</v>
+        <v>0.04653639405525447</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02864229551184389</v>
+        <v>0.04150630075141929</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02019182387952786</v>
+        <v>0.0163504219235185</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.06337507033047558</v>
+        <v>0.003928767729409722</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.009672472628113883</v>
+        <v>0.02168637220003525</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.05336419800578148</v>
+        <v>0.09322188770805508</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.001232617164067563</v>
+        <v>0.02150065436768589</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.04085513655069853</v>
+        <v>0.01561424089453524</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.111087159689222</v>
+        <v>0.1113361603341763</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05216097817339768</v>
+        <v>0.05392842320841749</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004143070932510842</v>
+        <v>0.001659101810244085</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04869281397685832</v>
+        <v>0.01000326584016575</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02847619801504002</v>
+        <v>0.05812864477656201</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004139653164452834</v>
+        <v>0.03529358633988049</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001583055014571361</v>
+        <v>0.01294382995172809</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01141298098016153</v>
+        <v>0.03494796399522915</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05318088842397189</v>
+        <v>0.06332343090453292</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02438904770392164</v>
+        <v>0.02997554096444194</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06994396158163914</v>
+        <v>0.008310325644829954</v>
       </c>
       <c r="P20" t="n">
-        <v>0.002595018928667695</v>
+        <v>0.04606958124473447</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01834205879108367</v>
+        <v>0.0330051923438518</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01368046751940981</v>
+        <v>0.03628274164283116</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02685312567517299</v>
+        <v>0.0002844340876359632</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04688099995018154</v>
+        <v>0.01793678873972885</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04597410763018826</v>
+        <v>0.05528682485434037</v>
       </c>
       <c r="V20" t="n">
-        <v>0.07052243285308245</v>
+        <v>0.07335936474421184</v>
       </c>
       <c r="W20" t="n">
-        <v>0.03352973494179701</v>
+        <v>0.04805757811971564</v>
       </c>
       <c r="X20" t="n">
-        <v>0.04961726874200196</v>
+        <v>0.03019174875416294</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.00557227736229879</v>
+        <v>0.02262783759693305</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03168697616429814</v>
+        <v>0.004550464501528398</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05304402428626549</v>
+        <v>0.01625050923138844</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.07380370961661376</v>
+        <v>0.07575428471700749</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04952418442416379</v>
+        <v>0.0299593910863746</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.04824054013081064</v>
+        <v>0.01493159522484636</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0672232879488379</v>
+        <v>0.04490961103785983</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01500716801946943</v>
+        <v>0.06953994904849525</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0497799690491315</v>
+        <v>0.07248798958832181</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1238729350852199</v>
+        <v>0.112893995033526</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1212279241987334</v>
+        <v>0.1197129090909344</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02738126813169384</v>
+        <v>0.007947110993971768</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004929233425710102</v>
+        <v>0.02938608335045842</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01169610262463208</v>
+        <v>0.001084404082959864</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04994780386448294</v>
+        <v>0.05767066226549616</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006046411331654667</v>
+        <v>0.02708500468517168</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05728807591003403</v>
+        <v>0.06965663015181994</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004850478067358123</v>
+        <v>0.006973557961574793</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04767086102077223</v>
+        <v>0.04263827953462016</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02671957316310006</v>
+        <v>0.03375075606369116</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02377708153419316</v>
+        <v>0.01770116235994249</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08338066815278357</v>
+        <v>0.04382700405895874</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.001378465572418707</v>
+        <v>0.05080173269472742</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0555009140179745</v>
+        <v>0.005288100803623012</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02141222883603644</v>
+        <v>0.004587366802500135</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04734361500088881</v>
+        <v>0.06010636290121684</v>
       </c>
       <c r="U21" t="n">
-        <v>0.002633352874933726</v>
+        <v>0.01780362297283626</v>
       </c>
       <c r="V21" t="n">
-        <v>0.003027713848178159</v>
+        <v>0.0421002073596031</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06938022426895618</v>
+        <v>0.07153028259492801</v>
       </c>
       <c r="X21" t="n">
-        <v>0.03518127915481262</v>
+        <v>0.008533203523867178</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.03838120868860979</v>
+        <v>0.04291982730522165</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0846726921496644</v>
+        <v>0.06935426912544304</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07770546771671973</v>
+        <v>0.06421725800155186</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.03433111375576148</v>
+        <v>0.03489287123605729</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0176018838192821</v>
+        <v>0.02798572196771325</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.03989569460705943</v>
+        <v>0.0533913344464983</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.06329484545089382</v>
+        <v>0.04249483939279314</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.05075114931639239</v>
+        <v>0.0225623468503538</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.01382059369500276</v>
+        <v>0.04370999651240062</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.08458803709818742</v>
+        <v>0.0845498315713387</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1234068763019157</v>
+        <v>0.1210162028924429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004422457109248314</v>
+        <v>0.02211096439787432</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04129547381749017</v>
+        <v>0.02726362327141047</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008431513947550108</v>
+        <v>0.005718993633969932</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0176748585984831</v>
+        <v>0.03351279563344704</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06174958828788661</v>
+        <v>0.03381300762190451</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0541953105043713</v>
+        <v>0.04210777586534597</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01680784542483928</v>
+        <v>0.01839701199305656</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01329097482087356</v>
+        <v>0.02270555785308555</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04134220534246078</v>
+        <v>0.03130862101095392</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007703041616687687</v>
+        <v>0.007534148494294074</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04877066098112968</v>
+        <v>0.06402347456258017</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01072241396015338</v>
+        <v>0.001123630802831614</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04770787701499897</v>
+        <v>0.03003057669867715</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01911433683132004</v>
+        <v>0.008913827230514969</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03384322399853329</v>
+        <v>0.0781533514709451</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06561375304288197</v>
+        <v>0.07943782353062324</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0656175559741755</v>
+        <v>0.08266583927249928</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02518099047120879</v>
+        <v>0.02658234346026687</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06759426760721544</v>
+        <v>0.003771337862156346</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05625857397322399</v>
+        <v>0.063388438298371</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03155166439534824</v>
+        <v>0.008447167729768636</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02752326203254877</v>
+        <v>0.0288214890470387</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.03782016307898362</v>
+        <v>0.08322241235529977</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.05392662161998241</v>
+        <v>0.08059139124698546</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.01901224445904347</v>
+        <v>0.01936194909897219</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.07022695556310188</v>
+        <v>0.04695982975039151</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.03229077108942831</v>
+        <v>0.03484292337159375</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.02031139443683125</v>
+        <v>0.01518969443514182</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1801501288294781</v>
+        <v>0.1712472278632153</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1473181731221099</v>
+        <v>0.1324297262347591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03340563916397251</v>
+        <v>0.05670833510894012</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0153732748657453</v>
+        <v>0.04268659159313858</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05398404510601508</v>
+        <v>0.009539565669881914</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07241060067082693</v>
+        <v>0.01136205320238502</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06850965889173556</v>
+        <v>0.06425714209085458</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06385460679429898</v>
+        <v>0.02051567848618963</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01171140391998437</v>
+        <v>0.01205920548984885</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06920889189580721</v>
+        <v>0.03181159723628081</v>
       </c>
       <c r="N23" t="n">
-        <v>0.009664618385416074</v>
+        <v>0.02387088672673114</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0056915342099199</v>
+        <v>0.002354328542762043</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01593281218420588</v>
+        <v>0.01323688338967828</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02747227488778824</v>
+        <v>0.03154889840361621</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01485360881076392</v>
+        <v>0.06291371121763177</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02332709963695955</v>
+        <v>0.05873559826175691</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006761917901344536</v>
+        <v>0.0752863972045824</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07554337338728163</v>
+        <v>0.06836325465627383</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0406385233874906</v>
+        <v>0.003367598708456308</v>
       </c>
       <c r="W23" t="n">
-        <v>0.00170205148372391</v>
+        <v>0.0163372490809015</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03093333329280118</v>
+        <v>0.06058463133815398</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.002036136447676695</v>
+        <v>0.02628777719327242</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.04211370887524916</v>
+        <v>0.05800502970989983</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03071801250656125</v>
+        <v>4.576909681389252e-05</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02934361404598994</v>
+        <v>0.05873926228640085</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06466126652587742</v>
+        <v>0.005148640509607257</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.06597389573423344</v>
+        <v>0.06260409908963478</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.003598162771897357</v>
+        <v>0.06996125083924433</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.05673623138632784</v>
+        <v>0.005652343503066906</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.06383970283010544</v>
+        <v>0.04801622136399601</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2534484925931512</v>
+        <v>0.2120633025769659</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.104799769056282</v>
+        <v>0.1051718476264491</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02776922192982884</v>
+        <v>0.01724614500099537</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05922146814070237</v>
+        <v>0.05128591879550593</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0563469497580437</v>
+        <v>0.06232116951639134</v>
       </c>
       <c r="I24" t="n">
-        <v>0.008445239258991634</v>
+        <v>0.01497373478767646</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004570842345025096</v>
+        <v>0.00965014893348261</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02834090710065916</v>
+        <v>0.01358771671672803</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007175886134789105</v>
+        <v>0.03280049159889527</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04957436940949099</v>
+        <v>0.05060557566615091</v>
       </c>
       <c r="N24" t="n">
-        <v>0.006633791379721254</v>
+        <v>0.04229784902128966</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07076327353557124</v>
+        <v>0.03452851001182048</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05676386695694041</v>
+        <v>0.01968770285023336</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01898337699240983</v>
+        <v>0.001496046353609992</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0216215709840873</v>
+        <v>0.02320234693559789</v>
       </c>
       <c r="S24" t="n">
-        <v>0.009995069960619177</v>
+        <v>0.06067691171110137</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02484506802172111</v>
+        <v>0.04891918622833544</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01743558128105708</v>
+        <v>0.007499683169675907</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05468293377950769</v>
+        <v>0.06332396968784192</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01587257059557095</v>
+        <v>0.05934417440019257</v>
       </c>
       <c r="X24" t="n">
-        <v>0.002621549300804606</v>
+        <v>0.002182247638591596</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06391245760519408</v>
+        <v>0.06589278929262707</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0339969836335571</v>
+        <v>0.0230515158362865</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04348339235120612</v>
+        <v>0.06276039710140087</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06954191726108488</v>
+        <v>0.03513839206309141</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.05469899770553491</v>
+        <v>0.02094228414972248</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.07032670858545093</v>
+        <v>0.05432211945086647</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.03131490743679748</v>
+        <v>0.03292747190340837</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.02840336642271365</v>
+        <v>0.04371004637581495</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.06265773213291943</v>
+        <v>0.04562545480266574</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.01288427524032425</v>
+        <v>0.007709482702567048</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1366572525210277</v>
+        <v>0.1233024751167536</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06841025174995782</v>
+        <v>0.01757675302028007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04053287033677051</v>
+        <v>0.0242092506949434</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03634561698191028</v>
+        <v>0.06718275780588005</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005889897265306409</v>
+        <v>0.001735062905907947</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02941136162001366</v>
+        <v>0.03443432961861652</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07869851741090415</v>
+        <v>0.07573072923642765</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07736332019583853</v>
+        <v>0.05439706926333417</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007733209700095357</v>
+        <v>0.01841400447337824</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001749959076633232</v>
+        <v>0.04037310859857812</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05477452721251166</v>
+        <v>0.04254726776914063</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05987235765498899</v>
+        <v>0.02569743695698748</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01952566881152738</v>
+        <v>0.01585217575799416</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0285272616694764</v>
+        <v>0.00371289453631163</v>
       </c>
       <c r="S25" t="n">
-        <v>0.005580011299864417</v>
+        <v>0.06597888861537105</v>
       </c>
       <c r="T25" t="n">
-        <v>0.06025221004776066</v>
+        <v>0.004069111846223557</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03828024842561589</v>
+        <v>0.01968818984781097</v>
       </c>
       <c r="V25" t="n">
-        <v>0.05770852661153791</v>
+        <v>0.07700037323519122</v>
       </c>
       <c r="W25" t="n">
-        <v>0.05092531347188397</v>
+        <v>0.03191908411329488</v>
       </c>
       <c r="X25" t="n">
-        <v>0.004523361723058744</v>
+        <v>0.007337229607848826</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.05675230335689481</v>
+        <v>0.01581055057877783</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03043905256547151</v>
+        <v>0.02985554397687223</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01790775596019261</v>
+        <v>0.07726218607584075</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0528613822314929</v>
+        <v>0.02147259528036966</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.03565617056676353</v>
+        <v>0.02880685202655868</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.06979847089374536</v>
+        <v>0.07352823394527609</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.004854781717572338</v>
+        <v>0.06173286975006897</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.003345876642562798</v>
+        <v>0.004128880543613211</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.002279714799647842</v>
+        <v>0.05954656991910209</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.004498444500919158</v>
+        <v>0.01797141341366813</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1110504830013728</v>
+        <v>0.111021875509621</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07897554958403714</v>
+        <v>0.01262705175872818</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04676868258732683</v>
+        <v>0.04483935604311599</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02250615368250243</v>
+        <v>0.002403900268440982</v>
       </c>
       <c r="I26" t="n">
-        <v>0.005730898867113511</v>
+        <v>0.004626833999366664</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00568685234266601</v>
+        <v>0.004539594676724752</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00358649194132241</v>
+        <v>0.005850423815571429</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00228433981569253</v>
+        <v>0.01411799994100226</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0784367827710391</v>
+        <v>0.06056800035624008</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05017763605824321</v>
+        <v>0.05598619797469597</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0704051352221525</v>
+        <v>0.03095316545704947</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05201144923079608</v>
+        <v>0.07663183860513736</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03206679477564237</v>
+        <v>0.06013087030421509</v>
       </c>
       <c r="R26" t="n">
-        <v>0.005225863192818511</v>
+        <v>0.04812280267966787</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06137638448185488</v>
+        <v>0.0217022677297644</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0369328061023474</v>
+        <v>0.03945998903782452</v>
       </c>
       <c r="U26" t="n">
-        <v>0.009422507827032524</v>
+        <v>0.06789647591361016</v>
       </c>
       <c r="V26" t="n">
-        <v>0.08147479830220587</v>
+        <v>0.06466576957616321</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02922493716726438</v>
+        <v>0.07106957972347135</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02234616017888787</v>
+        <v>0.02474820574754443</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03925271570464189</v>
+        <v>0.01749555073092745</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01197192785615228</v>
+        <v>0.001724831049702519</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.002901101802357964</v>
+        <v>0.07032358692517375</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.005939799788316672</v>
+        <v>0.01404416566032418</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.05417149645944462</v>
+        <v>0.06549686759752912</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.07526808021053764</v>
+        <v>0.03456281824477863</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.07815107089505269</v>
+        <v>0.04685778204467043</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01092481337784981</v>
+        <v>0.03853933320344952</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.02677876977470085</v>
+        <v>1.474093511042947e-05</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2190753399039995</v>
+        <v>0.1913678783344877</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1926561065141275</v>
+        <v>0.1357159774228446</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0459882350968104</v>
+        <v>0.0614696256648697</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08282562878410042</v>
+        <v>0.07471866364362333</v>
       </c>
       <c r="H27" t="n">
-        <v>0.003363844231897074</v>
+        <v>0.01235462477770951</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07746784335751747</v>
+        <v>0.04203935666621013</v>
       </c>
       <c r="J27" t="n">
-        <v>0.007011520550762168</v>
+        <v>0.002724357407454659</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04664881253234333</v>
+        <v>0.02112899105661187</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0732621966268575</v>
+        <v>0.07910554287744122</v>
       </c>
       <c r="M27" t="n">
-        <v>0.004304001554618502</v>
+        <v>0.06816290838038619</v>
       </c>
       <c r="N27" t="n">
-        <v>0.002457571919803383</v>
+        <v>0.03333682752056255</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06510821036281779</v>
+        <v>0.005183447675860274</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0006937670788654764</v>
+        <v>0.005994865297001388</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0362697947005883</v>
+        <v>0.02338160346106697</v>
       </c>
       <c r="R27" t="n">
-        <v>0.04601460743627877</v>
+        <v>0.004803549370325275</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08191127387841776</v>
+        <v>0.05829213323629415</v>
       </c>
       <c r="T27" t="n">
-        <v>0.00830784468355349</v>
+        <v>0.04082987454705835</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00914848541794269</v>
+        <v>0.06066581467262801</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01169612096313129</v>
+        <v>0.03325124527435701</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02793114532312503</v>
+        <v>0.07402280453192581</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01087655532547049</v>
+        <v>0.005749390808681078</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0334012101949912</v>
+        <v>0.05845969378825926</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.05842737372212241</v>
+        <v>0.02095738696809047</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02372909885161764</v>
+        <v>0.01683809469358492</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.05049294943124241</v>
+        <v>0.04114220539926785</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.02592141901153582</v>
+        <v>0.009022217204461542</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.07749568865148149</v>
+        <v>0.02743901291946736</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.02515738916227556</v>
+        <v>0.07481113521247942</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.02819929377576542</v>
+        <v>0.0145253967028911</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0358881173740668</v>
+        <v>0.02958923024143063</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2133173888994717</v>
+        <v>0.2077986282000694</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1434919047481485</v>
+        <v>0.1405473314687536</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01116397588658099</v>
+        <v>0.002044400189156992</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01413450459342988</v>
+        <v>0.03227470883780465</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01001010969539282</v>
+        <v>0.04376147360851485</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02320666438884823</v>
+        <v>0.055759145889338</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06766076458171782</v>
+        <v>0.0008214834258264208</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0432043389980262</v>
+        <v>0.03478154473056005</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04212795090408968</v>
+        <v>0.03511194252282853</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03955236606604404</v>
+        <v>0.04737890197019744</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01768618752270376</v>
+        <v>0.01790102319807818</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02875754822499899</v>
+        <v>0.0125636071230378</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01102310410385648</v>
+        <v>0.04977449595486498</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06197405585552124</v>
+        <v>0.06719357380886663</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03939601727664593</v>
+        <v>0.01895012437958012</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0239370422588734</v>
+        <v>0.001369547525847856</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04986634649671819</v>
+        <v>0.02413525799571905</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02494453618347514</v>
+        <v>0.02795980433388366</v>
       </c>
       <c r="V28" t="n">
-        <v>0.07834042941524662</v>
+        <v>0.07836087096489945</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04692519645261423</v>
+        <v>0.06518078089363009</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07556994688651646</v>
+        <v>0.03498924117994767</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.01701020863769056</v>
+        <v>0.005835084806512628</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.002521913222683467</v>
+        <v>0.03504282393109812</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.007604324111239927</v>
+        <v>0.05786780623323989</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02001092664820044</v>
+        <v>0.01115240894926373</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.03421470194798782</v>
+        <v>0.07072976800556516</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06990952078478066</v>
+        <v>0.0837111161821021</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02783460903149625</v>
+        <v>0.005360544686404357</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.04340252064890708</v>
+        <v>0.04408202776104533</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.06801018917571386</v>
+        <v>0.03590649091218618</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.02794416365368594</v>
+        <v>0.0261554003137069</v>
       </c>
     </row>
     <row r="29">
@@ -3590,97 +3590,97 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1691998484732662</v>
+        <v>0.1856560790536761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06636841334992795</v>
+        <v>0.07607274835804412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007226753399849662</v>
+        <v>0.01639005464188253</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04545823530420003</v>
+        <v>0.006185168634580475</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01074437009060761</v>
+        <v>4.44755629414956e-05</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005503902413121876</v>
+        <v>0.006742197846995327</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05007864126568532</v>
+        <v>0.08296304177195447</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02822419216397764</v>
+        <v>0.01445199729969203</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01006416254553712</v>
+        <v>0.06121936097450052</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01363701171866788</v>
+        <v>0.01668268393025442</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02301337443114207</v>
+        <v>0.06781029082479066</v>
       </c>
       <c r="P29" t="n">
-        <v>0.002227728831706308</v>
+        <v>0.008675832038181414</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02264584685519153</v>
+        <v>0.009781541454940023</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01298593624188502</v>
+        <v>0.06219001586234166</v>
       </c>
       <c r="S29" t="n">
-        <v>0.06949909319790763</v>
+        <v>0.01326633643787864</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05164708593575269</v>
+        <v>0.06187137882974439</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03740779056416238</v>
+        <v>0.05671158823579471</v>
       </c>
       <c r="V29" t="n">
-        <v>0.06799303738439237</v>
+        <v>0.007039316504253649</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07877844787295739</v>
+        <v>0.07462024480340854</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02076396055518753</v>
+        <v>0.0494092724673653</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03688120280305245</v>
+        <v>0.01224020340096924</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07485530534468782</v>
+        <v>0.0933650528558779</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07495147976440041</v>
+        <v>0.09174776172042978</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01219200844112037</v>
+        <v>0.01258865369580336</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.05305426721859745</v>
+        <v>0.002409527779830619</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.03385473336937572</v>
+        <v>0.05014057030886121</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01953200197850731</v>
+        <v>0.0001945609343243323</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01412925093327629</v>
+        <v>0.01147799897434316</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.05628176602512202</v>
+        <v>0.03370812385001588</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.09717765027549695</v>
+        <v>0.1250790220639952</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>